--- a/PRECIS/Metereological_Variables_PRECIS.xlsx
+++ b/PRECIS/Metereological_Variables_PRECIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="224">
   <si>
     <t>Description</t>
   </si>
@@ -1133,12 +1133,30 @@
   <si>
     <t>Domain:</t>
   </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,8 +1189,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,8 +1209,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1345,11 +1381,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1414,29 +1468,78 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,6 +1547,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1732,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M174"/>
+  <dimension ref="B2:U174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1744,88 +1852,128 @@
     <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" customHeight="1">
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="2:21" ht="17.25" customHeight="1">
+      <c r="B2" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="45" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="2:21" ht="17.25" customHeight="1">
+      <c r="B4" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="2:13" ht="92.25" customHeight="1">
-      <c r="B5" s="45" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="2:21" ht="92.25" customHeight="1">
+      <c r="B5" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" spans="2:13" ht="136.5" customHeight="1">
-      <c r="B6" s="45" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+    </row>
+    <row r="6" spans="2:21" ht="136.5" customHeight="1">
+      <c r="B6" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="38" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="I8" s="40" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="M8" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="8" t="s">
         <v>171</v>
       </c>
@@ -1841,23 +1989,43 @@
       <c r="F9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="G9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="M9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="Q9" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="R9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="15">
         <v>1</v>
       </c>
@@ -1873,23 +2041,31 @@
       <c r="F10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="19">
+      <c r="G10" s="48"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="18"/>
+      <c r="M10" s="19">
         <v>1</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="18">
+      <c r="P10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="52"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="24"/>
+    </row>
+    <row r="11" spans="2:21" ht="18">
       <c r="B11" s="15">
         <v>2</v>
       </c>
@@ -1905,23 +2081,31 @@
       <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="22">
+      <c r="G11" s="48"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="18"/>
+      <c r="M11" s="22">
         <v>24</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="N11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18">
+      <c r="P11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="52"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="24"/>
+    </row>
+    <row r="12" spans="2:21" ht="18">
       <c r="B12" s="15">
         <v>3</v>
       </c>
@@ -1937,23 +2121,31 @@
       <c r="F12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="22">
+      <c r="G12" s="48"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="18"/>
+      <c r="M12" s="22">
         <v>24</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="N12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="O12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="P12" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M12" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="Q12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="52"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="24"/>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="15">
         <v>4</v>
       </c>
@@ -1969,23 +2161,31 @@
       <c r="F13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="22">
+      <c r="G13" s="48"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="18"/>
+      <c r="M13" s="22">
         <v>24</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="N13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="P13" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="M13" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18">
+      <c r="Q13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="52"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="24"/>
+    </row>
+    <row r="14" spans="2:21" ht="18">
       <c r="B14" s="15">
         <v>10</v>
       </c>
@@ -2001,23 +2201,31 @@
       <c r="F14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="22">
+      <c r="G14" s="48"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="18"/>
+      <c r="M14" s="22">
         <v>25</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="N14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="O14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="18">
+      <c r="P14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="52"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="24"/>
+    </row>
+    <row r="15" spans="2:21" ht="18">
       <c r="B15" s="15">
         <v>10</v>
       </c>
@@ -2033,23 +2241,31 @@
       <c r="F15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="22">
+      <c r="G15" s="48"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="18"/>
+      <c r="M15" s="22">
         <v>1201</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="N15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="O15" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="18">
+      <c r="P15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="52"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="24"/>
+    </row>
+    <row r="16" spans="2:21" ht="18">
       <c r="B16" s="15">
         <v>24</v>
       </c>
@@ -2065,23 +2281,37 @@
       <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="22">
+      <c r="G16" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="M16" s="22">
         <v>1204</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="N16" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="O16" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="18">
+      <c r="P16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="52"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="24"/>
+    </row>
+    <row r="17" spans="2:21" ht="18">
       <c r="B17" s="15">
         <v>24</v>
       </c>
@@ -2097,23 +2327,35 @@
       <c r="F17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="22">
+      <c r="G17" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="M17" s="22">
         <v>1207</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="N17" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="O17" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="18">
+      <c r="P17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="52"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="24"/>
+    </row>
+    <row r="18" spans="2:21" ht="18">
       <c r="B18" s="15">
         <v>25</v>
       </c>
@@ -2129,23 +2371,31 @@
       <c r="F18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="22">
+      <c r="G18" s="48"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="18"/>
+      <c r="M18" s="22">
         <v>1208</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="N18" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="O18" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="18">
+      <c r="P18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="52"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="24"/>
+    </row>
+    <row r="19" spans="2:21" ht="18">
       <c r="B19" s="15">
         <v>31</v>
       </c>
@@ -2161,23 +2411,31 @@
       <c r="F19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="22">
+      <c r="G19" s="48"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="18"/>
+      <c r="M19" s="22">
         <v>1235</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="N19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="O19" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="18">
+      <c r="P19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="52"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="24"/>
+    </row>
+    <row r="20" spans="2:21" ht="18">
       <c r="B20" s="15">
         <v>58</v>
       </c>
@@ -2193,23 +2451,31 @@
       <c r="F20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="22">
+      <c r="G20" s="48"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="18"/>
+      <c r="M20" s="22">
         <v>2201</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="N20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="O20" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="18">
+      <c r="P20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="52"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="24"/>
+    </row>
+    <row r="21" spans="2:21" ht="18">
       <c r="B21" s="15">
         <v>59</v>
       </c>
@@ -2225,23 +2491,33 @@
       <c r="F21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="22">
+      <c r="G21" s="48"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="18"/>
+      <c r="M21" s="22">
         <v>2204</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="N21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="O21" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="18">
+      <c r="P21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="52"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U21" s="24"/>
+    </row>
+    <row r="22" spans="2:21" ht="18">
       <c r="B22" s="15">
         <v>101</v>
       </c>
@@ -2257,23 +2533,31 @@
       <c r="F22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="22">
+      <c r="G22" s="48"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="18"/>
+      <c r="M22" s="22">
         <v>2205</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="N22" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="O22" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="18">
+      <c r="P22" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="52"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="24"/>
+    </row>
+    <row r="23" spans="2:21" ht="18">
       <c r="B23" s="15">
         <v>102</v>
       </c>
@@ -2289,23 +2573,31 @@
       <c r="F23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="22">
+      <c r="G23" s="48"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="18"/>
+      <c r="M23" s="22">
         <v>3217</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="N23" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="O23" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="24" t="s">
+      <c r="P23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="24" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" ht="18">
+      <c r="R23" s="52"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="24"/>
+    </row>
+    <row r="24" spans="2:21" ht="18">
       <c r="B24" s="15">
         <v>103</v>
       </c>
@@ -2321,23 +2613,31 @@
       <c r="F24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="22">
+      <c r="G24" s="48"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="18"/>
+      <c r="M24" s="22">
         <v>3223</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="N24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="O24" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" s="24" t="s">
+      <c r="P24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" ht="18">
+      <c r="R24" s="52"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="24"/>
+    </row>
+    <row r="25" spans="2:21" ht="18">
       <c r="B25" s="15">
         <v>104</v>
       </c>
@@ -2353,23 +2653,31 @@
       <c r="F25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="22">
+      <c r="G25" s="48"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="18"/>
+      <c r="M25" s="22">
         <v>3224</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="N25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="O25" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="18">
+      <c r="P25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="52"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="24"/>
+    </row>
+    <row r="26" spans="2:21" ht="18">
       <c r="B26" s="15">
         <v>105</v>
       </c>
@@ -2385,23 +2693,31 @@
       <c r="F26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="22">
+      <c r="G26" s="48"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="18"/>
+      <c r="M26" s="22">
         <v>3225</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="N26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="O26" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="18">
+      <c r="P26" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="52"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="24"/>
+    </row>
+    <row r="27" spans="2:21" ht="18">
       <c r="B27" s="15">
         <v>106</v>
       </c>
@@ -2417,23 +2733,31 @@
       <c r="F27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="22">
+      <c r="G27" s="48"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="18"/>
+      <c r="M27" s="22">
         <v>3226</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="N27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="O27" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="L27" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="18">
+      <c r="P27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="52"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="24"/>
+    </row>
+    <row r="28" spans="2:21" ht="18">
       <c r="B28" s="15">
         <v>121</v>
       </c>
@@ -2449,23 +2773,31 @@
       <c r="F28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="22">
+      <c r="G28" s="48"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="18"/>
+      <c r="M28" s="22">
         <v>3228</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="N28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="O28" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="18">
+      <c r="P28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="52"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="24"/>
+    </row>
+    <row r="29" spans="2:21" ht="18">
       <c r="B29" s="15">
         <v>122</v>
       </c>
@@ -2481,23 +2813,31 @@
       <c r="F29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="22">
+      <c r="G29" s="48"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="18"/>
+      <c r="M29" s="22">
         <v>3234</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="N29" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="O29" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="18">
+      <c r="P29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" s="52"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="24"/>
+    </row>
+    <row r="30" spans="2:21" ht="18">
       <c r="B30" s="15">
         <v>123</v>
       </c>
@@ -2513,23 +2853,35 @@
       <c r="F30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="22">
+      <c r="G30" s="48"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="18"/>
+      <c r="M30" s="22">
         <v>3236</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="N30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="O30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="18">
+      <c r="P30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S30" s="40"/>
+      <c r="T30" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U30" s="24"/>
+    </row>
+    <row r="31" spans="2:21" ht="18">
       <c r="B31" s="15">
         <v>124</v>
       </c>
@@ -2545,23 +2897,35 @@
       <c r="F31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="22">
+      <c r="G31" s="48"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="18"/>
+      <c r="M31" s="22">
         <v>3236</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="N31" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="O31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="P31" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M31" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="18">
+      <c r="Q31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S31" s="40"/>
+      <c r="T31" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U31" s="24"/>
+    </row>
+    <row r="32" spans="2:21" ht="18">
       <c r="B32" s="15">
         <v>125</v>
       </c>
@@ -2577,23 +2941,35 @@
       <c r="F32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="22">
+      <c r="G32" s="48"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="18"/>
+      <c r="M32" s="22">
         <v>3236</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="N32" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="O32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="P32" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="M32" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="18">
+      <c r="Q32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S32" s="40"/>
+      <c r="T32" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U32" s="24"/>
+    </row>
+    <row r="33" spans="2:21" ht="18">
       <c r="B33" s="15">
         <v>126</v>
       </c>
@@ -2609,23 +2985,35 @@
       <c r="F33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="22">
+      <c r="G33" s="48"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="18"/>
+      <c r="M33" s="22">
         <v>3237</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="N33" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="O33" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="L33" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="18">
+      <c r="P33" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S33" s="40"/>
+      <c r="T33" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U33" s="24"/>
+    </row>
+    <row r="34" spans="2:21" ht="18">
       <c r="B34" s="15">
         <v>1201</v>
       </c>
@@ -2641,23 +3029,35 @@
       <c r="F34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="22">
+      <c r="G34" s="48"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="18"/>
+      <c r="M34" s="22">
         <v>3245</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="N34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="O34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="18">
+      <c r="P34" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S34" s="40"/>
+      <c r="T34" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U34" s="24"/>
+    </row>
+    <row r="35" spans="2:21" ht="18">
       <c r="B35" s="15">
         <v>1203</v>
       </c>
@@ -2673,23 +3073,35 @@
       <c r="F35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="22">
+      <c r="G35" s="48"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="18"/>
+      <c r="M35" s="22">
         <v>3249</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="N35" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="O35" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="L35" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="18">
+      <c r="P35" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S35" s="40"/>
+      <c r="T35" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U35" s="24"/>
+    </row>
+    <row r="36" spans="2:21" ht="18">
       <c r="B36" s="15">
         <v>1204</v>
       </c>
@@ -2705,23 +3117,35 @@
       <c r="F36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="22">
+      <c r="G36" s="48"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="18"/>
+      <c r="M36" s="22">
         <v>3249</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="N36" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="O36" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="P36" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M36" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="18">
+      <c r="Q36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S36" s="40"/>
+      <c r="T36" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U36" s="24"/>
+    </row>
+    <row r="37" spans="2:21" ht="18">
       <c r="B37" s="15">
         <v>1207</v>
       </c>
@@ -2737,21 +3161,29 @@
       <c r="F37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="22">
+      <c r="G37" s="48"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="18"/>
+      <c r="M37" s="22">
         <v>3259</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="N37" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="K37" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="2:13" ht="18">
+      <c r="O37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="2:21" ht="18">
       <c r="B38" s="15">
         <v>1208</v>
       </c>
@@ -2767,23 +3199,31 @@
       <c r="F38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="22">
+      <c r="G38" s="48"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="18"/>
+      <c r="M38" s="22">
         <v>3296</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="N38" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="O38" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="18">
+      <c r="P38" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="52"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="24"/>
+    </row>
+    <row r="39" spans="2:21" ht="18">
       <c r="B39" s="15">
         <v>1209</v>
       </c>
@@ -2799,23 +3239,31 @@
       <c r="F39" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="22">
+      <c r="G39" s="48"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="18"/>
+      <c r="M39" s="22">
         <v>3297</v>
       </c>
-      <c r="J39" s="22" t="s">
+      <c r="N39" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="O39" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L39" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="18">
+      <c r="P39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="52"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="24"/>
+    </row>
+    <row r="40" spans="2:21" ht="18">
       <c r="B40" s="15">
         <v>1210</v>
       </c>
@@ -2831,23 +3279,31 @@
       <c r="F40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="22">
+      <c r="G40" s="48"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="18"/>
+      <c r="M40" s="22">
         <v>3298</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="N40" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="O40" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L40" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="18">
+      <c r="P40" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="52"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="24"/>
+    </row>
+    <row r="41" spans="2:21" ht="18">
       <c r="B41" s="15">
         <v>1211</v>
       </c>
@@ -2863,23 +3319,31 @@
       <c r="F41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="22">
+      <c r="G41" s="48"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="18"/>
+      <c r="M41" s="22">
         <v>3299</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="N41" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="O41" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L41" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="18">
+      <c r="P41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="52"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="24"/>
+    </row>
+    <row r="42" spans="2:21" ht="18">
       <c r="B42" s="15">
         <v>1221</v>
       </c>
@@ -2893,25 +3357,33 @@
       <c r="F42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="22">
+      <c r="G42" s="48"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="22">
         <v>3312</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="N42" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="O42" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L42" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="18">
+      <c r="P42" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="52"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="24"/>
+    </row>
+    <row r="43" spans="2:21" ht="18">
       <c r="B43" s="15">
         <v>1223</v>
       </c>
@@ -2927,23 +3399,31 @@
       <c r="F43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="22">
+      <c r="G43" s="48"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="18"/>
+      <c r="M43" s="22">
         <v>3463</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="N43" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="O43" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="P43" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M43" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="18">
+      <c r="Q43" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R43" s="52"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="24"/>
+    </row>
+    <row r="44" spans="2:21" ht="18">
       <c r="B44" s="15">
         <v>1235</v>
       </c>
@@ -2959,21 +3439,29 @@
       <c r="F44" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="22">
+      <c r="G44" s="48"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="18"/>
+      <c r="M44" s="22">
         <v>3510</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="N44" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
+      <c r="O44" s="6"/>
+      <c r="P44" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R44" s="52"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="24"/>
+    </row>
+    <row r="45" spans="2:21">
       <c r="B45" s="15">
         <v>1241</v>
       </c>
@@ -2987,21 +3475,29 @@
       <c r="F45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="22">
+      <c r="G45" s="48"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="18"/>
+      <c r="M45" s="22">
         <v>3511</v>
       </c>
-      <c r="J45" s="22" t="s">
+      <c r="N45" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="18">
+      <c r="O45" s="6"/>
+      <c r="P45" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" s="52"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="24"/>
+    </row>
+    <row r="46" spans="2:21" ht="18">
       <c r="B46" s="15">
         <v>1242</v>
       </c>
@@ -3015,23 +3511,31 @@
       <c r="F46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="22">
+      <c r="G46" s="48"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="18"/>
+      <c r="M46" s="22">
         <v>4203</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="N46" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="O46" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L46" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="18">
+      <c r="P46" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R46" s="52"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="24"/>
+    </row>
+    <row r="47" spans="2:21" ht="18">
       <c r="B47" s="15">
         <v>1243</v>
       </c>
@@ -3045,23 +3549,31 @@
       <c r="F47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="22">
+      <c r="G47" s="48"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="18"/>
+      <c r="M47" s="22">
         <v>4204</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="N47" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="O47" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L47" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="18">
+      <c r="P47" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="52"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="24"/>
+    </row>
+    <row r="48" spans="2:21" ht="18">
       <c r="B48" s="15">
         <v>1244</v>
       </c>
@@ -3077,23 +3589,31 @@
       <c r="F48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="22">
+      <c r="G48" s="48"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="18"/>
+      <c r="M48" s="22">
         <v>5205</v>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="N48" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="O48" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M48" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="18">
+      <c r="P48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" s="52"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="24"/>
+    </row>
+    <row r="49" spans="2:21" ht="18">
       <c r="B49" s="15">
         <v>1245</v>
       </c>
@@ -3107,25 +3627,33 @@
       <c r="F49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="22">
+      <c r="G49" s="48"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="22">
         <v>5206</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="N49" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="O49" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L49" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" ht="18">
+      <c r="P49" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R49" s="52"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="24"/>
+    </row>
+    <row r="50" spans="2:21" ht="18">
       <c r="B50" s="15">
         <v>1246</v>
       </c>
@@ -3141,23 +3669,35 @@
       <c r="F50" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="22">
+      <c r="G50" s="48"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="18"/>
+      <c r="M50" s="22">
         <v>5216</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="N50" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="O50" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L50" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="18">
+      <c r="P50" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R50" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S50" s="40"/>
+      <c r="T50" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U50" s="24"/>
+    </row>
+    <row r="51" spans="2:21" ht="18">
       <c r="B51" s="15">
         <v>1262</v>
       </c>
@@ -3173,23 +3713,31 @@
       <c r="F51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="22">
+      <c r="G51" s="48"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="18"/>
+      <c r="M51" s="22">
         <v>8023</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="N51" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="O51" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="L51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M51" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="18">
+      <c r="P51" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R51" s="52"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="24"/>
+    </row>
+    <row r="52" spans="2:21" ht="18">
       <c r="B52" s="15">
         <v>1263</v>
       </c>
@@ -3205,23 +3753,31 @@
       <c r="F52" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="22">
+      <c r="G52" s="48"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="18"/>
+      <c r="M52" s="22">
         <v>8208</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="N52" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="O52" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="L52" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="18">
+      <c r="P52" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52" s="52"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="24"/>
+    </row>
+    <row r="53" spans="2:21" ht="18">
       <c r="B53" s="15">
         <v>1264</v>
       </c>
@@ -3237,23 +3793,31 @@
       <c r="F53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I53" s="22">
+      <c r="G53" s="48"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="18"/>
+      <c r="M53" s="22">
         <v>8209</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="N53" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="O53" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="L53" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="18">
+      <c r="P53" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R53" s="52"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="24"/>
+    </row>
+    <row r="54" spans="2:21" ht="18">
       <c r="B54" s="15">
         <v>1265</v>
       </c>
@@ -3269,23 +3833,31 @@
       <c r="F54" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I54" s="22">
+      <c r="G54" s="48"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="18"/>
+      <c r="M54" s="22">
         <v>8223</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="N54" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="O54" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="L54" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M54" s="24" t="s">
+      <c r="P54" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" ht="18">
+      <c r="R54" s="52"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="24"/>
+    </row>
+    <row r="55" spans="2:21" ht="18">
       <c r="B55" s="15">
         <v>2201</v>
       </c>
@@ -3301,23 +3873,31 @@
       <c r="F55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="22">
+      <c r="G55" s="48"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="18"/>
+      <c r="M55" s="22">
         <v>8225</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="N55" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K55" s="23" t="s">
+      <c r="O55" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M55" s="24" t="s">
+      <c r="P55" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" ht="18">
+      <c r="R55" s="52"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="24"/>
+    </row>
+    <row r="56" spans="2:21" ht="18">
       <c r="B56" s="15">
         <v>2203</v>
       </c>
@@ -3333,23 +3913,31 @@
       <c r="F56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="22">
+      <c r="G56" s="48"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="18"/>
+      <c r="M56" s="22">
         <v>8231</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="N56" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="K56" s="23" t="s">
+      <c r="O56" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L56" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M56" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="18">
+      <c r="P56" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R56" s="52"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="24"/>
+    </row>
+    <row r="57" spans="2:21" ht="18">
       <c r="B57" s="15">
         <v>2204</v>
       </c>
@@ -3365,23 +3953,33 @@
       <c r="F57" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="22">
+      <c r="G57" s="48"/>
+      <c r="H57" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="38"/>
+      <c r="J57" s="18"/>
+      <c r="M57" s="22">
         <v>8233</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="N57" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="O57" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L57" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M57" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" ht="18">
+      <c r="P57" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R57" s="52"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="24"/>
+    </row>
+    <row r="58" spans="2:21" ht="18">
       <c r="B58" s="15">
         <v>2205</v>
       </c>
@@ -3397,23 +3995,31 @@
       <c r="F58" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="22">
+      <c r="G58" s="48"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="18"/>
+      <c r="M58" s="22">
         <v>8234</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="N58" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="O58" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L58" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="18">
+      <c r="P58" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R58" s="52"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="24"/>
+    </row>
+    <row r="59" spans="2:21" ht="18">
       <c r="B59" s="15">
         <v>2206</v>
       </c>
@@ -3429,23 +4035,31 @@
       <c r="F59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="22">
+      <c r="G59" s="48"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="18"/>
+      <c r="M59" s="22">
         <v>8235</v>
       </c>
-      <c r="J59" s="22" t="s">
+      <c r="N59" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="O59" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="L59" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M59" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" ht="18">
+      <c r="P59" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R59" s="52"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="24"/>
+    </row>
+    <row r="60" spans="2:21" ht="18">
       <c r="B60" s="15">
         <v>2207</v>
       </c>
@@ -3461,23 +4075,31 @@
       <c r="F60" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="22">
+      <c r="G60" s="48"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="18"/>
+      <c r="M60" s="22">
         <v>9206</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="N60" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="O60" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="L60" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M60" s="24" t="s">
+      <c r="P60" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" ht="18">
+      <c r="R60" s="52"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="24"/>
+    </row>
+    <row r="61" spans="2:21" ht="18">
       <c r="B61" s="15">
         <v>2208</v>
       </c>
@@ -3493,23 +4115,31 @@
       <c r="F61" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="22">
+      <c r="G61" s="48"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="18"/>
+      <c r="M61" s="22">
         <v>9207</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="N61" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="O61" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="L61" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" s="24" t="s">
+      <c r="P61" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q61" s="24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" ht="18">
+      <c r="R61" s="52"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="24"/>
+    </row>
+    <row r="62" spans="2:21" ht="18">
       <c r="B62" s="15">
         <v>2262</v>
       </c>
@@ -3525,23 +4155,31 @@
       <c r="F62" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="22">
+      <c r="G62" s="48"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="18"/>
+      <c r="M62" s="22">
         <v>15201</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="N62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="O62" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="L62" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M62" s="24" t="s">
+      <c r="P62" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q62" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" ht="18">
+      <c r="R62" s="52"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="24"/>
+    </row>
+    <row r="63" spans="2:21" ht="18">
       <c r="B63" s="15">
         <v>2263</v>
       </c>
@@ -3557,23 +4195,31 @@
       <c r="F63" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I63" s="22">
+      <c r="G63" s="48"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="18"/>
+      <c r="M63" s="22">
         <v>15202</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="N63" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="O63" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="L63" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M63" s="24" t="s">
+      <c r="P63" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q63" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="64" spans="2:13">
+      <c r="R63" s="52"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="24"/>
+    </row>
+    <row r="64" spans="2:21">
       <c r="B64" s="15">
         <v>2264</v>
       </c>
@@ -3589,23 +4235,31 @@
       <c r="F64" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I64" s="22">
+      <c r="G64" s="48"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="18"/>
+      <c r="M64" s="22">
         <v>15216</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="N64" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="O64" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M64" s="24" t="s">
+      <c r="P64" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" ht="18">
+      <c r="R64" s="52"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="24"/>
+    </row>
+    <row r="65" spans="2:21" ht="18">
       <c r="B65" s="15">
         <v>2265</v>
       </c>
@@ -3621,23 +4275,31 @@
       <c r="F65" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I65" s="22">
+      <c r="G65" s="48"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="18"/>
+      <c r="M65" s="22">
         <v>15222</v>
       </c>
-      <c r="J65" s="22" t="s">
+      <c r="N65" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="O65" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="L65" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M65" s="24" t="s">
+      <c r="P65" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" ht="18">
+      <c r="R65" s="52"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="24"/>
+    </row>
+    <row r="66" spans="2:21" ht="18">
       <c r="B66" s="15">
         <v>2269</v>
       </c>
@@ -3651,23 +4313,31 @@
       <c r="F66" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I66" s="22">
+      <c r="G66" s="48"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="18"/>
+      <c r="M66" s="22">
         <v>15226</v>
       </c>
-      <c r="J66" s="22" t="s">
+      <c r="N66" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="K66" s="23" t="s">
+      <c r="O66" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="L66" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M66" s="24" t="s">
+      <c r="P66" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q66" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" ht="18">
+      <c r="R66" s="52"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="24"/>
+    </row>
+    <row r="67" spans="2:21" ht="18">
       <c r="B67" s="15">
         <v>2270</v>
       </c>
@@ -3681,23 +4351,31 @@
       <c r="F67" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="22">
+      <c r="G67" s="48"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="18"/>
+      <c r="M67" s="22">
         <v>15227</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="N67" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="O67" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="L67" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M67" s="24" t="s">
+      <c r="P67" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" ht="18">
+      <c r="R67" s="52"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="24"/>
+    </row>
+    <row r="68" spans="2:21" ht="18">
       <c r="B68" s="15">
         <v>2271</v>
       </c>
@@ -3711,23 +4389,31 @@
       <c r="F68" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="22">
+      <c r="G68" s="48"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="18"/>
+      <c r="M68" s="22">
         <v>15228</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="N68" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="K68" s="23" t="s">
+      <c r="O68" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="L68" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M68" s="24" t="s">
+      <c r="P68" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" ht="18">
+      <c r="R68" s="52"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="24"/>
+    </row>
+    <row r="69" spans="2:21" ht="18">
       <c r="B69" s="15">
         <v>2272</v>
       </c>
@@ -3741,23 +4427,31 @@
       <c r="F69" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I69" s="22">
+      <c r="G69" s="48"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="18"/>
+      <c r="M69" s="22">
         <v>15235</v>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="N69" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="K69" s="23" t="s">
+      <c r="O69" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="L69" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M69" s="24" t="s">
+      <c r="P69" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q69" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" ht="18">
+      <c r="R69" s="52"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="24"/>
+    </row>
+    <row r="70" spans="2:21" ht="18">
       <c r="B70" s="15">
         <v>2273</v>
       </c>
@@ -3771,23 +4465,31 @@
       <c r="F70" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I70" s="22">
+      <c r="G70" s="48"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="18"/>
+      <c r="M70" s="22">
         <v>15242</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="N70" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="K70" s="23" t="s">
+      <c r="O70" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="L70" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M70" s="24" t="s">
+      <c r="P70" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="2:13">
+      <c r="R70" s="52"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="24"/>
+    </row>
+    <row r="71" spans="2:21">
       <c r="B71" s="15">
         <v>2274</v>
       </c>
@@ -3801,23 +4503,31 @@
       <c r="F71" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I71" s="22">
+      <c r="G71" s="48"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="18"/>
+      <c r="M71" s="22">
         <v>16202</v>
       </c>
-      <c r="J71" s="22" t="s">
+      <c r="N71" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="O71" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L71" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M71" s="24" t="s">
+      <c r="P71" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="2:13">
+      <c r="R71" s="52"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="24"/>
+    </row>
+    <row r="72" spans="2:21">
       <c r="B72" s="15">
         <v>2275</v>
       </c>
@@ -3831,23 +4541,31 @@
       <c r="F72" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="22">
+      <c r="G72" s="48"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="18"/>
+      <c r="M72" s="22">
         <v>16203</v>
       </c>
-      <c r="J72" s="22" t="s">
+      <c r="N72" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="K72" s="23" t="s">
+      <c r="O72" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L72" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M72" s="24" t="s">
+      <c r="P72" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="73" spans="2:13">
+      <c r="R72" s="52"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="24"/>
+    </row>
+    <row r="73" spans="2:21">
       <c r="B73" s="15">
         <v>2276</v>
       </c>
@@ -3861,23 +4579,35 @@
       <c r="F73" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I73" s="22">
+      <c r="G73" s="48"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="18"/>
+      <c r="M73" s="22">
         <v>16204</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="N73" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="K73" s="23" t="s">
+      <c r="O73" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L73" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M73" s="24" t="s">
+      <c r="P73" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q73" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="2:13">
+      <c r="R73" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S73" s="40"/>
+      <c r="T73" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U73" s="24"/>
+    </row>
+    <row r="74" spans="2:21">
       <c r="B74" s="15">
         <v>2277</v>
       </c>
@@ -3891,23 +4621,31 @@
       <c r="F74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="25">
+      <c r="G74" s="48"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="18"/>
+      <c r="M74" s="25">
         <v>16222</v>
       </c>
-      <c r="J74" s="25" t="s">
+      <c r="N74" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="K74" s="26" t="s">
+      <c r="O74" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L74" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" ht="18">
+      <c r="P74" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R74" s="53"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="27"/>
+    </row>
+    <row r="75" spans="2:21" ht="18">
       <c r="B75" s="15">
         <v>2278</v>
       </c>
@@ -3923,8 +4661,12 @@
       <c r="F75" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="2:13">
+      <c r="G75" s="48"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="2:21">
       <c r="B76" s="15">
         <v>3026</v>
       </c>
@@ -3940,8 +4682,12 @@
       <c r="F76" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" ht="18">
+      <c r="G76" s="48"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="2:21" ht="18">
       <c r="B77" s="15">
         <v>3201</v>
       </c>
@@ -3957,8 +4703,12 @@
       <c r="F77" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" ht="18">
+      <c r="G77" s="48"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="2:21" ht="18">
       <c r="B78" s="15">
         <v>3202</v>
       </c>
@@ -3974,8 +4724,12 @@
       <c r="F78" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" ht="18">
+      <c r="G78" s="48"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="2:21" ht="18">
       <c r="B79" s="15">
         <v>3217</v>
       </c>
@@ -3991,8 +4745,12 @@
       <c r="F79" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" ht="18">
+      <c r="G79" s="48"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="18"/>
+    </row>
+    <row r="80" spans="2:21" ht="18">
       <c r="B80" s="15">
         <v>3223</v>
       </c>
@@ -4008,8 +4766,12 @@
       <c r="F80" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" ht="18">
+      <c r="G80" s="48"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" spans="2:10" ht="18">
       <c r="B81" s="15">
         <v>3224</v>
       </c>
@@ -4025,8 +4787,12 @@
       <c r="F81" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" ht="18">
+      <c r="G81" s="48"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="18"/>
+    </row>
+    <row r="82" spans="2:10" ht="18">
       <c r="B82" s="15">
         <v>3225</v>
       </c>
@@ -4042,8 +4808,12 @@
       <c r="F82" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" ht="18">
+      <c r="G82" s="48"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="18"/>
+    </row>
+    <row r="83" spans="2:10" ht="18">
       <c r="B83" s="15">
         <v>3226</v>
       </c>
@@ -4059,8 +4829,12 @@
       <c r="F83" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" ht="18">
+      <c r="G83" s="48"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="18"/>
+    </row>
+    <row r="84" spans="2:10" ht="18">
       <c r="B84" s="15">
         <v>3228</v>
       </c>
@@ -4076,8 +4850,12 @@
       <c r="F84" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" ht="18">
+      <c r="G84" s="48"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="18"/>
+    </row>
+    <row r="85" spans="2:10" ht="18">
       <c r="B85" s="15">
         <v>3232</v>
       </c>
@@ -4093,8 +4871,12 @@
       <c r="F85" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" ht="18">
+      <c r="G85" s="48"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="18"/>
+    </row>
+    <row r="86" spans="2:10" ht="18">
       <c r="B86" s="15">
         <v>3234</v>
       </c>
@@ -4110,8 +4892,16 @@
       <c r="F86" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="G86" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" spans="2:10">
       <c r="B87" s="15">
         <v>3236</v>
       </c>
@@ -4127,8 +4917,16 @@
       <c r="F87" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="2:6">
+      <c r="G87" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J87" s="18"/>
+    </row>
+    <row r="88" spans="2:10">
       <c r="B88" s="15">
         <v>3236</v>
       </c>
@@ -4144,8 +4942,16 @@
       <c r="F88" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="2:6">
+      <c r="G88" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" spans="2:10">
       <c r="B89" s="15">
         <v>3236</v>
       </c>
@@ -4161,8 +4967,16 @@
       <c r="F89" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" ht="18">
+      <c r="G89" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="90" spans="2:10" ht="18">
       <c r="B90" s="15">
         <v>3237</v>
       </c>
@@ -4178,8 +4992,16 @@
       <c r="F90" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="2:6">
+      <c r="G90" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J90" s="18"/>
+    </row>
+    <row r="91" spans="2:10">
       <c r="B91" s="15">
         <v>3245</v>
       </c>
@@ -4195,8 +5017,18 @@
       <c r="F91" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" ht="18">
+      <c r="G91" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I91" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J91" s="18"/>
+    </row>
+    <row r="92" spans="2:10" ht="18">
       <c r="B92" s="15">
         <v>3249</v>
       </c>
@@ -4212,8 +5044,16 @@
       <c r="F92" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" ht="18">
+      <c r="G92" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J92" s="18"/>
+    </row>
+    <row r="93" spans="2:10" ht="18">
       <c r="B93" s="15">
         <v>3249</v>
       </c>
@@ -4229,8 +5069,16 @@
       <c r="F93" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="2:6">
+      <c r="G93" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J93" s="18"/>
+    </row>
+    <row r="94" spans="2:10">
       <c r="B94" s="15">
         <v>3254</v>
       </c>
@@ -4246,8 +5094,12 @@
       <c r="F94" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:6">
+      <c r="G94" s="48"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="18"/>
+    </row>
+    <row r="95" spans="2:10">
       <c r="B95" s="15">
         <v>3255</v>
       </c>
@@ -4263,8 +5115,12 @@
       <c r="F95" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="2:6">
+      <c r="G95" s="48"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="18"/>
+    </row>
+    <row r="96" spans="2:10">
       <c r="B96" s="15">
         <v>3259</v>
       </c>
@@ -4278,8 +5134,12 @@
       <c r="F96" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" ht="18">
+      <c r="G96" s="48"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="18"/>
+    </row>
+    <row r="97" spans="2:10" ht="18">
       <c r="B97" s="15">
         <v>3270</v>
       </c>
@@ -4295,8 +5155,12 @@
       <c r="F97" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" ht="18">
+      <c r="G97" s="48"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="18"/>
+    </row>
+    <row r="98" spans="2:10" ht="18">
       <c r="B98" s="15">
         <v>3271</v>
       </c>
@@ -4312,8 +5176,12 @@
       <c r="F98" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" ht="18">
+      <c r="G98" s="48"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="18"/>
+    </row>
+    <row r="99" spans="2:10" ht="18">
       <c r="B99" s="15">
         <v>3272</v>
       </c>
@@ -4329,8 +5197,12 @@
       <c r="F99" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" ht="18">
+      <c r="G99" s="48"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="18"/>
+    </row>
+    <row r="100" spans="2:10" ht="18">
       <c r="B100" s="15">
         <v>3273</v>
       </c>
@@ -4346,8 +5218,12 @@
       <c r="F100" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" ht="18">
+      <c r="G100" s="48"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="18"/>
+    </row>
+    <row r="101" spans="2:10" ht="18">
       <c r="B101" s="15">
         <v>3296</v>
       </c>
@@ -4363,8 +5239,18 @@
       <c r="F101" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" ht="18">
+      <c r="G101" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H101" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J101" s="18"/>
+    </row>
+    <row r="102" spans="2:10" ht="18">
       <c r="B102" s="15">
         <v>3297</v>
       </c>
@@ -4380,8 +5266,18 @@
       <c r="F102" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" ht="18">
+      <c r="G102" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J102" s="18"/>
+    </row>
+    <row r="103" spans="2:10" ht="18">
       <c r="B103" s="15">
         <v>3298</v>
       </c>
@@ -4397,8 +5293,16 @@
       <c r="F103" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" ht="18">
+      <c r="G103" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J103" s="18"/>
+    </row>
+    <row r="104" spans="2:10" ht="18">
       <c r="B104" s="15">
         <v>3299</v>
       </c>
@@ -4414,8 +5318,16 @@
       <c r="F104" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" ht="18">
+      <c r="G104" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J104" s="18"/>
+    </row>
+    <row r="105" spans="2:10" ht="18">
       <c r="B105" s="15">
         <v>3312</v>
       </c>
@@ -4431,8 +5343,18 @@
       <c r="F105" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="2:6">
+      <c r="G105" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J105" s="18"/>
+    </row>
+    <row r="106" spans="2:10">
       <c r="B106" s="15">
         <v>3313</v>
       </c>
@@ -4446,8 +5368,16 @@
         <v>7</v>
       </c>
       <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="2:6" ht="18">
+      <c r="G106" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="2:10" ht="18">
       <c r="B107" s="15">
         <v>3463</v>
       </c>
@@ -4463,8 +5393,12 @@
       <c r="F107" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="2:6">
+      <c r="G107" s="48"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="18"/>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" s="15">
         <v>3510</v>
       </c>
@@ -4478,8 +5412,16 @@
       <c r="F108" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="2:6">
+      <c r="G108" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J108" s="18"/>
+    </row>
+    <row r="109" spans="2:10">
       <c r="B109" s="15">
         <v>3511</v>
       </c>
@@ -4493,8 +5435,16 @@
       <c r="F109" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" ht="18">
+      <c r="G109" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J109" s="18"/>
+    </row>
+    <row r="110" spans="2:10" ht="18">
       <c r="B110" s="15">
         <v>4203</v>
       </c>
@@ -4510,8 +5460,12 @@
       <c r="F110" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" ht="18">
+      <c r="G110" s="48"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="18"/>
+    </row>
+    <row r="111" spans="2:10" ht="18">
       <c r="B111" s="15">
         <v>4204</v>
       </c>
@@ -4527,8 +5481,12 @@
       <c r="F111" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="2:6">
+      <c r="G111" s="48"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="18"/>
+    </row>
+    <row r="112" spans="2:10">
       <c r="B112" s="15">
         <v>4205</v>
       </c>
@@ -4542,8 +5500,12 @@
       <c r="F112" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="2:6">
+      <c r="G112" s="48"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="18"/>
+    </row>
+    <row r="113" spans="2:10">
       <c r="B113" s="15">
         <v>4206</v>
       </c>
@@ -4557,8 +5519,12 @@
       <c r="F113" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" ht="18">
+      <c r="G113" s="48"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="38"/>
+      <c r="J113" s="18"/>
+    </row>
+    <row r="114" spans="2:10" ht="18">
       <c r="B114" s="15">
         <v>4216</v>
       </c>
@@ -4574,8 +5540,12 @@
       <c r="F114" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="2:6" ht="18">
+      <c r="G114" s="48"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="18"/>
+    </row>
+    <row r="115" spans="2:10" ht="18">
       <c r="B115" s="15">
         <v>4217</v>
       </c>
@@ -4591,8 +5561,12 @@
       <c r="F115" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" ht="18">
+      <c r="G115" s="48"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="18"/>
+    </row>
+    <row r="116" spans="2:10" ht="18">
       <c r="B116" s="15">
         <v>4218</v>
       </c>
@@ -4608,8 +5582,12 @@
       <c r="F116" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" ht="18">
+      <c r="G116" s="48"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="18"/>
+    </row>
+    <row r="117" spans="2:10" ht="18">
       <c r="B117" s="15">
         <v>4219</v>
       </c>
@@ -4625,8 +5603,12 @@
       <c r="F117" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" ht="18">
+      <c r="G117" s="48"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="18"/>
+    </row>
+    <row r="118" spans="2:10" ht="18">
       <c r="B118" s="15">
         <v>5205</v>
       </c>
@@ -4642,8 +5624,12 @@
       <c r="F118" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" ht="18">
+      <c r="G118" s="48"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="18"/>
+    </row>
+    <row r="119" spans="2:10" ht="18">
       <c r="B119" s="15">
         <v>5206</v>
       </c>
@@ -4659,8 +5645,12 @@
       <c r="F119" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:6">
+      <c r="G119" s="48"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="18"/>
+    </row>
+    <row r="120" spans="2:10">
       <c r="B120" s="15">
         <v>5209</v>
       </c>
@@ -4676,8 +5666,12 @@
       <c r="F120" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="2:6">
+      <c r="G120" s="48"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="18"/>
+    </row>
+    <row r="121" spans="2:10">
       <c r="B121" s="15">
         <v>5209</v>
       </c>
@@ -4693,8 +5687,12 @@
       <c r="F121" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="2:6">
+      <c r="G121" s="48"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="18"/>
+    </row>
+    <row r="122" spans="2:10">
       <c r="B122" s="15">
         <v>5212</v>
       </c>
@@ -4710,8 +5708,12 @@
       <c r="F122" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" ht="18">
+      <c r="G122" s="48"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="18"/>
+    </row>
+    <row r="123" spans="2:10" ht="18">
       <c r="B123" s="15">
         <v>5216</v>
       </c>
@@ -4727,8 +5729,16 @@
       <c r="F123" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" ht="18">
+      <c r="G123" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I123" s="38"/>
+      <c r="J123" s="18"/>
+    </row>
+    <row r="124" spans="2:10" ht="18">
       <c r="B124" s="15">
         <v>5234</v>
       </c>
@@ -4744,8 +5754,12 @@
       <c r="F124" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" ht="18">
+      <c r="G124" s="48"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="18"/>
+    </row>
+    <row r="125" spans="2:10" ht="18">
       <c r="B125" s="15">
         <v>5238</v>
       </c>
@@ -4761,8 +5775,12 @@
       <c r="F125" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="2:6" ht="18">
+      <c r="G125" s="48"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="18"/>
+    </row>
+    <row r="126" spans="2:10" ht="18">
       <c r="B126" s="15">
         <v>5239</v>
       </c>
@@ -4778,8 +5796,12 @@
       <c r="F126" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" ht="18">
+      <c r="G126" s="48"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="18"/>
+    </row>
+    <row r="127" spans="2:10" ht="18">
       <c r="B127" s="15">
         <v>5240</v>
       </c>
@@ -4795,8 +5817,12 @@
       <c r="F127" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="2:6" ht="18">
+      <c r="G127" s="48"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="38"/>
+      <c r="J127" s="18"/>
+    </row>
+    <row r="128" spans="2:10" ht="18">
       <c r="B128" s="15">
         <v>5241</v>
       </c>
@@ -4812,8 +5838,12 @@
       <c r="F128" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" ht="18">
+      <c r="G128" s="48"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="38"/>
+      <c r="J128" s="18"/>
+    </row>
+    <row r="129" spans="2:12" ht="18">
       <c r="B129" s="15">
         <v>8023</v>
       </c>
@@ -4829,8 +5859,12 @@
       <c r="F129" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" ht="18">
+      <c r="G129" s="49"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="28"/>
+    </row>
+    <row r="130" spans="2:12" ht="18">
       <c r="B130" s="15">
         <v>8208</v>
       </c>
@@ -4846,8 +5880,14 @@
       <c r="F130" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" ht="18">
+      <c r="G130" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+      <c r="J130" s="18"/>
+    </row>
+    <row r="131" spans="2:12" ht="18">
       <c r="B131" s="15">
         <v>8209</v>
       </c>
@@ -4863,9 +5903,13 @@
       <c r="F131" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H131" s="30"/>
-    </row>
-    <row r="132" spans="2:8" ht="18">
+      <c r="G131" s="48"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+      <c r="J131" s="18"/>
+      <c r="L131" s="30"/>
+    </row>
+    <row r="132" spans="2:12" ht="18">
       <c r="B132" s="15">
         <v>8223</v>
       </c>
@@ -4881,9 +5925,15 @@
       <c r="F132" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G132" s="30"/>
-    </row>
-    <row r="133" spans="2:8">
+      <c r="G132" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="30"/>
+    </row>
+    <row r="133" spans="2:12">
       <c r="B133" s="15">
         <v>8225</v>
       </c>
@@ -4899,9 +5949,15 @@
       <c r="F133" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G133" s="30"/>
-    </row>
-    <row r="134" spans="2:8">
+      <c r="G133" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="30"/>
+    </row>
+    <row r="134" spans="2:12">
       <c r="B134" s="15">
         <v>8229</v>
       </c>
@@ -4917,9 +5973,13 @@
       <c r="F134" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G134" s="30"/>
-    </row>
-    <row r="135" spans="2:8">
+      <c r="G134" s="48"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="38"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="30"/>
+    </row>
+    <row r="135" spans="2:12">
       <c r="B135" s="15">
         <v>8230</v>
       </c>
@@ -4935,9 +5995,13 @@
       <c r="F135" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G135" s="30"/>
-    </row>
-    <row r="136" spans="2:8" ht="18">
+      <c r="G135" s="48"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="38"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="30"/>
+    </row>
+    <row r="136" spans="2:12" ht="18">
       <c r="B136" s="15">
         <v>8231</v>
       </c>
@@ -4953,9 +6017,13 @@
       <c r="F136" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H136" s="30"/>
-    </row>
-    <row r="137" spans="2:8" ht="18">
+      <c r="G136" s="48"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="38"/>
+      <c r="J136" s="18"/>
+      <c r="L136" s="30"/>
+    </row>
+    <row r="137" spans="2:12" ht="18">
       <c r="B137" s="15">
         <v>8233</v>
       </c>
@@ -4971,9 +6039,13 @@
       <c r="F137" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H137" s="30"/>
-    </row>
-    <row r="138" spans="2:8" ht="18">
+      <c r="G137" s="48"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="18"/>
+      <c r="L137" s="30"/>
+    </row>
+    <row r="138" spans="2:12" ht="18">
       <c r="B138" s="15">
         <v>8234</v>
       </c>
@@ -4989,9 +6061,13 @@
       <c r="F138" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H138" s="30"/>
-    </row>
-    <row r="139" spans="2:8" ht="18">
+      <c r="G138" s="48"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="18"/>
+      <c r="L138" s="30"/>
+    </row>
+    <row r="139" spans="2:12" ht="18">
       <c r="B139" s="15">
         <v>8235</v>
       </c>
@@ -5007,9 +6083,13 @@
       <c r="F139" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H139" s="30"/>
-    </row>
-    <row r="140" spans="2:8">
+      <c r="G139" s="48"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="18"/>
+      <c r="L139" s="30"/>
+    </row>
+    <row r="140" spans="2:12">
       <c r="B140" s="15">
         <v>9201</v>
       </c>
@@ -5025,9 +6105,13 @@
       <c r="F140" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H140" s="30"/>
-    </row>
-    <row r="141" spans="2:8" ht="18">
+      <c r="G140" s="48"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="18"/>
+      <c r="L140" s="30"/>
+    </row>
+    <row r="141" spans="2:12" ht="18">
       <c r="B141" s="15">
         <v>9206</v>
       </c>
@@ -5043,9 +6127,13 @@
       <c r="F141" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H141" s="30"/>
-    </row>
-    <row r="142" spans="2:8" ht="18">
+      <c r="G141" s="48"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="18"/>
+      <c r="L141" s="30"/>
+    </row>
+    <row r="142" spans="2:12" ht="18">
       <c r="B142" s="15">
         <v>9207</v>
       </c>
@@ -5061,9 +6149,13 @@
       <c r="F142" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H142" s="30"/>
-    </row>
-    <row r="143" spans="2:8">
+      <c r="G142" s="48"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="J142" s="18"/>
+      <c r="L142" s="30"/>
+    </row>
+    <row r="143" spans="2:12">
       <c r="B143" s="15">
         <v>9282</v>
       </c>
@@ -5079,9 +6171,13 @@
       <c r="F143" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H143" s="30"/>
-    </row>
-    <row r="144" spans="2:8" ht="18">
+      <c r="G143" s="48"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="38"/>
+      <c r="J143" s="18"/>
+      <c r="L143" s="30"/>
+    </row>
+    <row r="144" spans="2:12" ht="18">
       <c r="B144" s="15">
         <v>12201</v>
       </c>
@@ -5097,9 +6193,13 @@
       <c r="F144" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H144" s="30"/>
-    </row>
-    <row r="145" spans="2:8" ht="18">
+      <c r="G144" s="48"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="38"/>
+      <c r="J144" s="18"/>
+      <c r="L144" s="30"/>
+    </row>
+    <row r="145" spans="2:12" ht="18">
       <c r="B145" s="15">
         <v>15201</v>
       </c>
@@ -5115,10 +6215,14 @@
       <c r="F145" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-    </row>
-    <row r="146" spans="2:8" ht="18">
+      <c r="G145" s="48"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="38"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
+    </row>
+    <row r="146" spans="2:12" ht="18">
       <c r="B146" s="15">
         <v>15202</v>
       </c>
@@ -5134,10 +6238,14 @@
       <c r="F146" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-    </row>
-    <row r="147" spans="2:8" ht="18">
+      <c r="G146" s="48"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="38"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
+    </row>
+    <row r="147" spans="2:12" ht="18">
       <c r="B147" s="15">
         <v>15214</v>
       </c>
@@ -5153,10 +6261,14 @@
       <c r="F147" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G147" s="30"/>
-      <c r="H147" s="31"/>
-    </row>
-    <row r="148" spans="2:8" ht="18">
+      <c r="G147" s="48"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="38"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="31"/>
+    </row>
+    <row r="148" spans="2:12" ht="18">
       <c r="B148" s="15">
         <v>15215</v>
       </c>
@@ -5172,10 +6284,14 @@
       <c r="F148" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-    </row>
-    <row r="149" spans="2:8">
+      <c r="G148" s="48"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="38"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="30"/>
+    </row>
+    <row r="149" spans="2:12">
       <c r="B149" s="15">
         <v>15216</v>
       </c>
@@ -5191,10 +6307,14 @@
       <c r="F149" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-    </row>
-    <row r="150" spans="2:8" ht="18">
+      <c r="G149" s="48"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="38"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="30"/>
+    </row>
+    <row r="150" spans="2:12" ht="18">
       <c r="B150" s="15">
         <v>15217</v>
       </c>
@@ -5210,10 +6330,14 @@
       <c r="F150" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30"/>
-    </row>
-    <row r="151" spans="2:8" ht="18">
+      <c r="G150" s="48"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="38"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="30"/>
+    </row>
+    <row r="151" spans="2:12" ht="18">
       <c r="B151" s="15">
         <v>15218</v>
       </c>
@@ -5229,10 +6353,14 @@
       <c r="F151" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
-    </row>
-    <row r="152" spans="2:8" ht="18">
+      <c r="G151" s="48"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="38"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="30"/>
+    </row>
+    <row r="152" spans="2:12" ht="18">
       <c r="B152" s="15">
         <v>15219</v>
       </c>
@@ -5248,10 +6376,14 @@
       <c r="F152" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-    </row>
-    <row r="153" spans="2:8" ht="18">
+      <c r="G152" s="48"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="38"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="30"/>
+    </row>
+    <row r="153" spans="2:12" ht="18">
       <c r="B153" s="15">
         <v>15220</v>
       </c>
@@ -5267,10 +6399,14 @@
       <c r="F153" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-    </row>
-    <row r="154" spans="2:8" ht="18">
+      <c r="G153" s="48"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="30"/>
+    </row>
+    <row r="154" spans="2:12" ht="18">
       <c r="B154" s="15">
         <v>15221</v>
       </c>
@@ -5286,10 +6422,14 @@
       <c r="F154" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
-    </row>
-    <row r="155" spans="2:8" ht="18">
+      <c r="G154" s="48"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="38"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="30"/>
+    </row>
+    <row r="155" spans="2:12" ht="18">
       <c r="B155" s="15">
         <v>15222</v>
       </c>
@@ -5305,10 +6445,14 @@
       <c r="F155" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
-    </row>
-    <row r="156" spans="2:8" ht="18">
+      <c r="G155" s="48"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="38"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="30"/>
+    </row>
+    <row r="156" spans="2:12" ht="18">
       <c r="B156" s="15">
         <v>15223</v>
       </c>
@@ -5324,10 +6468,14 @@
       <c r="F156" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-    </row>
-    <row r="157" spans="2:8" ht="18">
+      <c r="G156" s="48"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="38"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="30"/>
+    </row>
+    <row r="157" spans="2:12" ht="18">
       <c r="B157" s="15">
         <v>15224</v>
       </c>
@@ -5343,10 +6491,14 @@
       <c r="F157" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-    </row>
-    <row r="158" spans="2:8" ht="18">
+      <c r="G157" s="48"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="38"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
+    </row>
+    <row r="158" spans="2:12" ht="18">
       <c r="B158" s="15">
         <v>15225</v>
       </c>
@@ -5362,10 +6514,14 @@
       <c r="F158" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-    </row>
-    <row r="159" spans="2:8" ht="18">
+      <c r="G158" s="48"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="38"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
+    </row>
+    <row r="159" spans="2:12" ht="18">
       <c r="B159" s="15">
         <v>15226</v>
       </c>
@@ -5381,10 +6537,14 @@
       <c r="F159" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-    </row>
-    <row r="160" spans="2:8" ht="18">
+      <c r="G159" s="48"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="38"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
+    </row>
+    <row r="160" spans="2:12" ht="18">
       <c r="B160" s="15">
         <v>15227</v>
       </c>
@@ -5400,10 +6560,14 @@
       <c r="F160" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-    </row>
-    <row r="161" spans="2:8" ht="18">
+      <c r="G160" s="48"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="38"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
+    </row>
+    <row r="161" spans="2:12" ht="18">
       <c r="B161" s="15">
         <v>15228</v>
       </c>
@@ -5419,10 +6583,14 @@
       <c r="F161" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-    </row>
-    <row r="162" spans="2:8" ht="18">
+      <c r="G161" s="48"/>
+      <c r="H161" s="38"/>
+      <c r="I161" s="38"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
+    </row>
+    <row r="162" spans="2:12" ht="18">
       <c r="B162" s="15">
         <v>15235</v>
       </c>
@@ -5438,10 +6606,14 @@
       <c r="F162" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-    </row>
-    <row r="163" spans="2:8">
+      <c r="G162" s="48"/>
+      <c r="H162" s="38"/>
+      <c r="I162" s="38"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
+    </row>
+    <row r="163" spans="2:12">
       <c r="B163" s="15">
         <v>15238</v>
       </c>
@@ -5457,10 +6629,14 @@
       <c r="F163" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
-    </row>
-    <row r="164" spans="2:8" ht="18">
+      <c r="G163" s="48"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="38"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="30"/>
+    </row>
+    <row r="164" spans="2:12" ht="18">
       <c r="B164" s="15">
         <v>15239</v>
       </c>
@@ -5476,10 +6652,14 @@
       <c r="F164" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
-    </row>
-    <row r="165" spans="2:8" ht="18">
+      <c r="G164" s="48"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="38"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="30"/>
+    </row>
+    <row r="165" spans="2:12" ht="18">
       <c r="B165" s="15">
         <v>15240</v>
       </c>
@@ -5495,10 +6675,14 @@
       <c r="F165" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
-    </row>
-    <row r="166" spans="2:8" ht="18">
+      <c r="G165" s="48"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="38"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="30"/>
+    </row>
+    <row r="166" spans="2:12" ht="18">
       <c r="B166" s="15">
         <v>15242</v>
       </c>
@@ -5514,10 +6698,14 @@
       <c r="F166" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G166" s="30"/>
-      <c r="H166" s="30"/>
-    </row>
-    <row r="167" spans="2:8">
+      <c r="G166" s="48"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="38"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="30"/>
+    </row>
+    <row r="167" spans="2:12">
       <c r="B167" s="15">
         <v>16202</v>
       </c>
@@ -5533,10 +6721,14 @@
       <c r="F167" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G167" s="30"/>
-      <c r="H167" s="30"/>
-    </row>
-    <row r="168" spans="2:8">
+      <c r="G167" s="48"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="38"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="30"/>
+    </row>
+    <row r="168" spans="2:12">
       <c r="B168" s="15">
         <v>16203</v>
       </c>
@@ -5552,10 +6744,14 @@
       <c r="F168" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30"/>
-    </row>
-    <row r="169" spans="2:8">
+      <c r="G168" s="48"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="38"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="30"/>
+    </row>
+    <row r="169" spans="2:12">
       <c r="B169" s="15">
         <v>16204</v>
       </c>
@@ -5571,10 +6767,16 @@
       <c r="F169" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
-    </row>
-    <row r="170" spans="2:8">
+      <c r="G169" s="48"/>
+      <c r="H169" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I169" s="38"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="30"/>
+    </row>
+    <row r="170" spans="2:12">
       <c r="B170" s="15">
         <v>16222</v>
       </c>
@@ -5590,9 +6792,15 @@
       <c r="F170" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H170" s="30"/>
-    </row>
-    <row r="171" spans="2:8" ht="18">
+      <c r="G170" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H170" s="38"/>
+      <c r="I170" s="38"/>
+      <c r="J170" s="18"/>
+      <c r="L170" s="30"/>
+    </row>
+    <row r="171" spans="2:12" ht="18">
       <c r="B171" s="32">
         <v>16224</v>
       </c>
@@ -5608,23 +6816,29 @@
       <c r="F171" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="H171" s="30"/>
-    </row>
-    <row r="172" spans="2:8">
+      <c r="G171" s="50"/>
+      <c r="H171" s="51"/>
+      <c r="I171" s="51"/>
+      <c r="J171" s="35"/>
+      <c r="L171" s="30"/>
+    </row>
+    <row r="172" spans="2:12">
       <c r="B172" s="36"/>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:12">
       <c r="B174" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRECIS/Metereological_Variables_PRECIS.xlsx
+++ b/PRECIS/Metereological_Variables_PRECIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="253">
   <si>
     <t>Description</t>
   </si>
@@ -1151,12 +1151,99 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Prefixes</t>
+  </si>
+  <si>
+    <t>TSMax</t>
+  </si>
+  <si>
+    <t>TSMin</t>
+  </si>
+  <si>
+    <t>SLHeat</t>
+  </si>
+  <si>
+    <t>Tmean1_5</t>
+  </si>
+  <si>
+    <t>Tmmax1_5</t>
+  </si>
+  <si>
+    <t>Tmmin1_5</t>
+  </si>
+  <si>
+    <t>EvSS</t>
+  </si>
+  <si>
+    <t>EvCR</t>
+  </si>
+  <si>
+    <t>SubSR</t>
+  </si>
+  <si>
+    <t>TransR</t>
+  </si>
+  <si>
+    <t>SoilMois</t>
+  </si>
+  <si>
+    <t>EvPotR</t>
+  </si>
+  <si>
+    <t>EvPotF1</t>
+  </si>
+  <si>
+    <t>EvPotF2</t>
+  </si>
+  <si>
+    <t>Prec</t>
+  </si>
+  <si>
+    <t>SoilMoisR</t>
+  </si>
+  <si>
+    <t>SoilMoisL</t>
+  </si>
+  <si>
+    <t>Tsoil</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>CloudAm</t>
+  </si>
+  <si>
+    <t>Tmax1_5</t>
+  </si>
+  <si>
+    <t>Tmin1_5</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Wsmax</t>
+  </si>
+  <si>
+    <t>Wsmean</t>
+  </si>
+  <si>
+    <t>TSmean</t>
+  </si>
+  <si>
+    <t>TSmmax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,6 +1279,13 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -1403,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1477,18 +1571,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,14 +1593,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1526,14 +1628,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1840,15 +1954,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:U174"/>
+  <dimension ref="B2:W174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1856,67 +1972,72 @@
     <col min="8" max="8" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="17.25" customHeight="1">
-      <c r="B2" s="56" t="s">
+    <row r="2" spans="2:23" ht="17.25" customHeight="1">
+      <c r="B2" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="59" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="2:21" ht="17.25" customHeight="1">
-      <c r="B4" s="59" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="2:23" ht="17.25" customHeight="1">
+      <c r="B4" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" spans="2:21" ht="92.25" customHeight="1">
-      <c r="B5" s="59" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="2:23" ht="92.25" customHeight="1">
+      <c r="B5" s="53" t="s">
         <v>214</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -1929,51 +2050,56 @@
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="63"/>
-    </row>
-    <row r="6" spans="2:21" ht="136.5" customHeight="1">
-      <c r="B6" s="64" t="s">
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:23" ht="136.5" customHeight="1">
+      <c r="B6" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="43" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="59"/>
+      <c r="O6" s="55"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="47" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="M8" s="44" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="43"/>
+      <c r="N8" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="47" t="s">
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-    </row>
-    <row r="9" spans="2:21">
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="56"/>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="8" t="s">
         <v>171</v>
       </c>
@@ -1999,33 +2125,37 @@
         <v>221</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="M9" s="12" t="s">
+      <c r="K9" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="R9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="U9" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="15">
         <v>1</v>
       </c>
@@ -2041,31 +2171,33 @@
       <c r="F10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="18"/>
-      <c r="M10" s="19">
+      <c r="K10" s="17"/>
+      <c r="N10" s="19">
         <v>1</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="O10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="P10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="21" t="s">
-        <v>6</v>
-      </c>
       <c r="Q10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="52"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="24"/>
-    </row>
-    <row r="11" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="48"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="23"/>
+    </row>
+    <row r="11" spans="2:23" ht="18">
       <c r="B11" s="15">
         <v>2</v>
       </c>
@@ -2081,31 +2213,33 @@
       <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="18"/>
-      <c r="M11" s="22">
+      <c r="K11" s="17"/>
+      <c r="N11" s="22">
         <v>24</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="O11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q11" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="52"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="24"/>
-    </row>
-    <row r="12" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="48"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="23"/>
+    </row>
+    <row r="12" spans="2:23" ht="18">
       <c r="B12" s="15">
         <v>3</v>
       </c>
@@ -2121,31 +2255,35 @@
       <c r="F12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="18"/>
-      <c r="M12" s="22">
+      <c r="K12" s="17"/>
+      <c r="N12" s="22">
         <v>24</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="O12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="P12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="Q12" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="Q12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="24"/>
-    </row>
-    <row r="13" spans="2:21">
+      <c r="R12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="48"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13" s="15">
         <v>4</v>
       </c>
@@ -2161,31 +2299,35 @@
       <c r="F13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="18"/>
-      <c r="M13" s="22">
+      <c r="K13" s="17"/>
+      <c r="N13" s="22">
         <v>24</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="O13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="P13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="Q13" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="Q13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="24"/>
-    </row>
-    <row r="14" spans="2:21" ht="18">
+      <c r="R13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="48"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="18">
       <c r="B14" s="15">
         <v>10</v>
       </c>
@@ -2201,31 +2343,33 @@
       <c r="F14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="18"/>
-      <c r="M14" s="22">
+      <c r="K14" s="17"/>
+      <c r="N14" s="22">
         <v>25</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="O14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="P14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" s="52"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="24"/>
-    </row>
-    <row r="15" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="48"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="23"/>
+    </row>
+    <row r="15" spans="2:23" ht="18">
       <c r="B15" s="15">
         <v>10</v>
       </c>
@@ -2241,31 +2385,33 @@
       <c r="F15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="18"/>
-      <c r="M15" s="22">
+      <c r="K15" s="17"/>
+      <c r="N15" s="22">
         <v>1201</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="O15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="P15" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P15" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="24"/>
-    </row>
-    <row r="16" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="48"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="23"/>
+    </row>
+    <row r="16" spans="2:23" ht="18">
       <c r="B16" s="15">
         <v>24</v>
       </c>
@@ -2281,7 +2427,7 @@
       <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H16" s="38" t="s">
@@ -2291,27 +2437,31 @@
         <v>223</v>
       </c>
       <c r="J16" s="18"/>
-      <c r="M16" s="22">
+      <c r="K16" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" s="22">
         <v>1204</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="O16" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="P16" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="52"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="24"/>
-    </row>
-    <row r="17" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="48"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="23"/>
+    </row>
+    <row r="17" spans="2:23" ht="18">
       <c r="B17" s="15">
         <v>24</v>
       </c>
@@ -2327,7 +2477,7 @@
       <c r="F17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H17" s="38"/>
@@ -2335,27 +2485,31 @@
         <v>223</v>
       </c>
       <c r="J17" s="18"/>
-      <c r="M17" s="22">
+      <c r="K17" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="N17" s="22">
         <v>1207</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="O17" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="P17" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q17" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="52"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="24"/>
-    </row>
-    <row r="18" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="48"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="2:23" ht="18">
       <c r="B18" s="15">
         <v>25</v>
       </c>
@@ -2371,31 +2525,33 @@
       <c r="F18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="18"/>
-      <c r="M18" s="22">
+      <c r="K18" s="17"/>
+      <c r="N18" s="22">
         <v>1208</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="O18" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="P18" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P18" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q18" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="24"/>
-    </row>
-    <row r="19" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="48"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="2:23" ht="18">
       <c r="B19" s="15">
         <v>31</v>
       </c>
@@ -2411,31 +2567,33 @@
       <c r="F19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="18"/>
-      <c r="M19" s="22">
+      <c r="K19" s="17"/>
+      <c r="N19" s="22">
         <v>1235</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="O19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="P19" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P19" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" s="52"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="24"/>
-    </row>
-    <row r="20" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="48"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="23"/>
+    </row>
+    <row r="20" spans="2:23" ht="18">
       <c r="B20" s="15">
         <v>58</v>
       </c>
@@ -2451,31 +2609,33 @@
       <c r="F20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="18"/>
-      <c r="M20" s="22">
+      <c r="K20" s="17"/>
+      <c r="N20" s="22">
         <v>2201</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="O20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="P20" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P20" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" s="52"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="24"/>
-    </row>
-    <row r="21" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="48"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="23"/>
+    </row>
+    <row r="21" spans="2:23" ht="18">
       <c r="B21" s="15">
         <v>59</v>
       </c>
@@ -2491,33 +2651,37 @@
       <c r="F21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="18"/>
-      <c r="M21" s="22">
+      <c r="K21" s="17"/>
+      <c r="N21" s="22">
         <v>2204</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="O21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="P21" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q21" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" s="52"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="48"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U21" s="24"/>
-    </row>
-    <row r="22" spans="2:21" ht="18">
+      <c r="V21" s="24"/>
+      <c r="W21" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="18">
       <c r="B22" s="15">
         <v>101</v>
       </c>
@@ -2533,31 +2697,33 @@
       <c r="F22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="18"/>
-      <c r="M22" s="22">
+      <c r="K22" s="17"/>
+      <c r="N22" s="22">
         <v>2205</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="O22" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="P22" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P22" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q22" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="52"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="24"/>
-    </row>
-    <row r="23" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="48"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="23"/>
+    </row>
+    <row r="23" spans="2:23" ht="18">
       <c r="B23" s="15">
         <v>102</v>
       </c>
@@ -2573,31 +2739,33 @@
       <c r="F23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="18"/>
-      <c r="M23" s="22">
+      <c r="K23" s="17"/>
+      <c r="N23" s="22">
         <v>3217</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="O23" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="P23" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R23" s="52"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="24"/>
-    </row>
-    <row r="24" spans="2:21" ht="18">
+      <c r="S23" s="48"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="23"/>
+    </row>
+    <row r="24" spans="2:23" ht="18">
       <c r="B24" s="15">
         <v>103</v>
       </c>
@@ -2613,31 +2781,33 @@
       <c r="F24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="18"/>
-      <c r="M24" s="22">
+      <c r="K24" s="17"/>
+      <c r="N24" s="22">
         <v>3223</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="O24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="P24" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="52"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="24"/>
-    </row>
-    <row r="25" spans="2:21" ht="18">
+      <c r="S24" s="48"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="23"/>
+    </row>
+    <row r="25" spans="2:23" ht="18">
       <c r="B25" s="15">
         <v>104</v>
       </c>
@@ -2653,31 +2823,33 @@
       <c r="F25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="18"/>
-      <c r="M25" s="22">
+      <c r="K25" s="17"/>
+      <c r="N25" s="22">
         <v>3224</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="O25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="P25" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P25" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q25" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R25" s="52"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="24"/>
-    </row>
-    <row r="26" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="48"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="23"/>
+    </row>
+    <row r="26" spans="2:23" ht="18">
       <c r="B26" s="15">
         <v>105</v>
       </c>
@@ -2693,31 +2865,33 @@
       <c r="F26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="18"/>
-      <c r="M26" s="22">
+      <c r="K26" s="17"/>
+      <c r="N26" s="22">
         <v>3225</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="O26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="P26" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="P26" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q26" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R26" s="52"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="24"/>
-    </row>
-    <row r="27" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="48"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="23"/>
+    </row>
+    <row r="27" spans="2:23" ht="18">
       <c r="B27" s="15">
         <v>106</v>
       </c>
@@ -2733,31 +2907,33 @@
       <c r="F27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="18"/>
-      <c r="M27" s="22">
+      <c r="K27" s="17"/>
+      <c r="N27" s="22">
         <v>3226</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="O27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="P27" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="P27" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q27" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R27" s="52"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="24"/>
-    </row>
-    <row r="28" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="48"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="23"/>
+    </row>
+    <row r="28" spans="2:23" ht="18">
       <c r="B28" s="15">
         <v>121</v>
       </c>
@@ -2773,31 +2949,33 @@
       <c r="F28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="44"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="18"/>
-      <c r="M28" s="22">
+      <c r="K28" s="17"/>
+      <c r="N28" s="22">
         <v>3228</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="O28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="P28" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P28" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q28" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R28" s="52"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="24"/>
-    </row>
-    <row r="29" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="48"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="23"/>
+    </row>
+    <row r="29" spans="2:23" ht="18">
       <c r="B29" s="15">
         <v>122</v>
       </c>
@@ -2813,31 +2991,33 @@
       <c r="F29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="18"/>
-      <c r="M29" s="22">
+      <c r="K29" s="17"/>
+      <c r="N29" s="22">
         <v>3234</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="O29" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="P29" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P29" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q29" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R29" s="52"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="24"/>
-    </row>
-    <row r="30" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="48"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="23"/>
+    </row>
+    <row r="30" spans="2:23" ht="18">
       <c r="B30" s="15">
         <v>123</v>
       </c>
@@ -2853,35 +3033,39 @@
       <c r="F30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="18"/>
-      <c r="M30" s="22">
+      <c r="K30" s="17"/>
+      <c r="N30" s="22">
         <v>3236</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="O30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="P30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q30" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R30" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S30" s="40"/>
-      <c r="T30" s="42" t="s">
+      <c r="T30" s="40"/>
+      <c r="U30" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U30" s="24"/>
-    </row>
-    <row r="31" spans="2:21" ht="18">
+      <c r="V30" s="24"/>
+      <c r="W30" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="18">
       <c r="B31" s="15">
         <v>124</v>
       </c>
@@ -2897,35 +3081,39 @@
       <c r="F31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="18"/>
-      <c r="M31" s="22">
+      <c r="K31" s="17"/>
+      <c r="N31" s="22">
         <v>3236</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="O31" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="P31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P31" s="24" t="s">
+      <c r="Q31" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="Q31" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R31" s="52" t="s">
+      <c r="R31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S31" s="40"/>
-      <c r="T31" s="42" t="s">
+      <c r="T31" s="40"/>
+      <c r="U31" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U31" s="24"/>
-    </row>
-    <row r="32" spans="2:21" ht="18">
+      <c r="V31" s="24"/>
+      <c r="W31" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="18">
       <c r="B32" s="15">
         <v>125</v>
       </c>
@@ -2941,35 +3129,39 @@
       <c r="F32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="48"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="18"/>
-      <c r="M32" s="22">
+      <c r="K32" s="17"/>
+      <c r="N32" s="22">
         <v>3236</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="O32" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="P32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P32" s="24" t="s">
+      <c r="Q32" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="Q32" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" s="52" t="s">
+      <c r="R32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S32" s="40"/>
-      <c r="T32" s="42" t="s">
+      <c r="T32" s="40"/>
+      <c r="U32" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U32" s="24"/>
-    </row>
-    <row r="33" spans="2:21" ht="18">
+      <c r="V32" s="24"/>
+      <c r="W32" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="18">
       <c r="B33" s="15">
         <v>126</v>
       </c>
@@ -2985,35 +3177,39 @@
       <c r="F33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="48"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="18"/>
-      <c r="M33" s="22">
+      <c r="K33" s="17"/>
+      <c r="N33" s="22">
         <v>3237</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="O33" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="P33" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="P33" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R33" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S33" s="40"/>
-      <c r="T33" s="42" t="s">
+      <c r="T33" s="40"/>
+      <c r="U33" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U33" s="24"/>
-    </row>
-    <row r="34" spans="2:21" ht="18">
+      <c r="V33" s="24"/>
+      <c r="W33" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="18">
       <c r="B34" s="15">
         <v>1201</v>
       </c>
@@ -3029,35 +3225,39 @@
       <c r="F34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="48"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="18"/>
-      <c r="M34" s="22">
+      <c r="K34" s="17"/>
+      <c r="N34" s="22">
         <v>3245</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="O34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="P34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="P34" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q34" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S34" s="40"/>
-      <c r="T34" s="42" t="s">
+      <c r="T34" s="40"/>
+      <c r="U34" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U34" s="24"/>
-    </row>
-    <row r="35" spans="2:21" ht="18">
+      <c r="V34" s="24"/>
+      <c r="W34" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="18">
       <c r="B35" s="15">
         <v>1203</v>
       </c>
@@ -3073,35 +3273,39 @@
       <c r="F35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="48"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="18"/>
-      <c r="M35" s="22">
+      <c r="K35" s="17"/>
+      <c r="N35" s="22">
         <v>3249</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="O35" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="23" t="s">
+      <c r="P35" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="P35" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q35" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S35" s="40"/>
-      <c r="T35" s="42" t="s">
+      <c r="T35" s="40"/>
+      <c r="U35" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U35" s="24"/>
-    </row>
-    <row r="36" spans="2:21" ht="18">
+      <c r="V35" s="24"/>
+      <c r="W35" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="18">
       <c r="B36" s="15">
         <v>1204</v>
       </c>
@@ -3117,35 +3321,39 @@
       <c r="F36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="48"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="18"/>
-      <c r="M36" s="22">
+      <c r="K36" s="17"/>
+      <c r="N36" s="22">
         <v>3249</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="O36" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="O36" s="23" t="s">
+      <c r="P36" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="Q36" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="Q36" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="52" t="s">
+      <c r="R36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S36" s="40"/>
-      <c r="T36" s="42" t="s">
+      <c r="T36" s="40"/>
+      <c r="U36" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U36" s="24"/>
-    </row>
-    <row r="37" spans="2:21" ht="18">
+      <c r="V36" s="24"/>
+      <c r="W36" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="18">
       <c r="B37" s="15">
         <v>1207</v>
       </c>
@@ -3161,29 +3369,31 @@
       <c r="F37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="48"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="18"/>
-      <c r="M37" s="22">
+      <c r="K37" s="17"/>
+      <c r="N37" s="22">
         <v>3259</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="O37" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="O37" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="2:21" ht="18">
+      <c r="P37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="61"/>
+    </row>
+    <row r="38" spans="2:23" ht="18">
       <c r="B38" s="15">
         <v>1208</v>
       </c>
@@ -3199,31 +3409,33 @@
       <c r="F38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="48"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
       <c r="J38" s="18"/>
-      <c r="M38" s="22">
+      <c r="K38" s="17"/>
+      <c r="N38" s="22">
         <v>3296</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="O38" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="O38" s="23" t="s">
+      <c r="P38" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P38" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q38" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="52"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="24"/>
-    </row>
-    <row r="39" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R38" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="48"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="23"/>
+    </row>
+    <row r="39" spans="2:23" ht="18">
       <c r="B39" s="15">
         <v>1209</v>
       </c>
@@ -3239,31 +3451,33 @@
       <c r="F39" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="18"/>
-      <c r="M39" s="22">
+      <c r="K39" s="17"/>
+      <c r="N39" s="22">
         <v>3297</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="O39" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="P39" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P39" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q39" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" s="52"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="24"/>
-    </row>
-    <row r="40" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="48"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="23"/>
+    </row>
+    <row r="40" spans="2:23" ht="18">
       <c r="B40" s="15">
         <v>1210</v>
       </c>
@@ -3279,31 +3493,33 @@
       <c r="F40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="48"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="18"/>
-      <c r="M40" s="22">
+      <c r="K40" s="17"/>
+      <c r="N40" s="22">
         <v>3298</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="O40" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="P40" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P40" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q40" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" s="52"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="24"/>
-    </row>
-    <row r="41" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R40" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="48"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="23"/>
+    </row>
+    <row r="41" spans="2:23" ht="18">
       <c r="B41" s="15">
         <v>1211</v>
       </c>
@@ -3319,31 +3535,33 @@
       <c r="F41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="48"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="18"/>
-      <c r="M41" s="22">
+      <c r="K41" s="17"/>
+      <c r="N41" s="22">
         <v>3299</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="O41" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="O41" s="23" t="s">
+      <c r="P41" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P41" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q41" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R41" s="52"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="24"/>
-    </row>
-    <row r="42" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="48"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="23"/>
+    </row>
+    <row r="42" spans="2:23" ht="18">
       <c r="B42" s="15">
         <v>1221</v>
       </c>
@@ -3357,33 +3575,35 @@
       <c r="F42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="48"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="18"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="22">
+      <c r="M42" s="2"/>
+      <c r="N42" s="22">
         <v>3312</v>
       </c>
-      <c r="N42" s="22" t="s">
+      <c r="O42" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="O42" s="23" t="s">
+      <c r="P42" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P42" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q42" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R42" s="52"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="24"/>
-    </row>
-    <row r="43" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="48"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="23"/>
+    </row>
+    <row r="43" spans="2:23" ht="18">
       <c r="B43" s="15">
         <v>1223</v>
       </c>
@@ -3399,31 +3619,33 @@
       <c r="F43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="48"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="18"/>
-      <c r="M43" s="22">
+      <c r="K43" s="17"/>
+      <c r="N43" s="22">
         <v>3463</v>
       </c>
-      <c r="N43" s="22" t="s">
+      <c r="O43" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="P43" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="Q43" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="Q43" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R43" s="52"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="24"/>
-    </row>
-    <row r="44" spans="2:21" ht="18">
+      <c r="R43" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="48"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="23"/>
+    </row>
+    <row r="44" spans="2:23" ht="18">
       <c r="B44" s="15">
         <v>1235</v>
       </c>
@@ -3439,29 +3661,31 @@
       <c r="F44" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="48"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="18"/>
-      <c r="M44" s="22">
+      <c r="K44" s="17"/>
+      <c r="N44" s="22">
         <v>3510</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="O44" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="24" t="s">
-        <v>6</v>
-      </c>
+      <c r="P44" s="6"/>
       <c r="Q44" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R44" s="52"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="24"/>
-    </row>
-    <row r="45" spans="2:21">
+        <v>6</v>
+      </c>
+      <c r="R44" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" s="48"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="23"/>
+    </row>
+    <row r="45" spans="2:23">
       <c r="B45" s="15">
         <v>1241</v>
       </c>
@@ -3475,29 +3699,31 @@
       <c r="F45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="48"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
       <c r="J45" s="18"/>
-      <c r="M45" s="22">
+      <c r="K45" s="17"/>
+      <c r="N45" s="22">
         <v>3511</v>
       </c>
-      <c r="N45" s="22" t="s">
+      <c r="O45" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="24" t="s">
-        <v>6</v>
-      </c>
+      <c r="P45" s="6"/>
       <c r="Q45" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R45" s="52"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="24"/>
-    </row>
-    <row r="46" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R45" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="48"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="23"/>
+    </row>
+    <row r="46" spans="2:23" ht="18">
       <c r="B46" s="15">
         <v>1242</v>
       </c>
@@ -3511,31 +3737,33 @@
       <c r="F46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="48"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="18"/>
-      <c r="M46" s="22">
+      <c r="K46" s="17"/>
+      <c r="N46" s="22">
         <v>4203</v>
       </c>
-      <c r="N46" s="22" t="s">
+      <c r="O46" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="P46" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P46" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q46" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R46" s="52"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="24"/>
-    </row>
-    <row r="47" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R46" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="48"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="23"/>
+    </row>
+    <row r="47" spans="2:23" ht="18">
       <c r="B47" s="15">
         <v>1243</v>
       </c>
@@ -3549,31 +3777,33 @@
       <c r="F47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="48"/>
+      <c r="G47" s="44"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="18"/>
-      <c r="M47" s="22">
+      <c r="K47" s="17"/>
+      <c r="N47" s="22">
         <v>4204</v>
       </c>
-      <c r="N47" s="22" t="s">
+      <c r="O47" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="P47" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P47" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q47" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R47" s="52"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="24"/>
-    </row>
-    <row r="48" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="48"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="23"/>
+    </row>
+    <row r="48" spans="2:23" ht="18">
       <c r="B48" s="15">
         <v>1244</v>
       </c>
@@ -3589,31 +3819,33 @@
       <c r="F48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="48"/>
+      <c r="G48" s="44"/>
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="18"/>
-      <c r="M48" s="22">
+      <c r="K48" s="17"/>
+      <c r="N48" s="22">
         <v>5205</v>
       </c>
-      <c r="N48" s="22" t="s">
+      <c r="O48" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="O48" s="23" t="s">
+      <c r="P48" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P48" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R48" s="52"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="24"/>
-    </row>
-    <row r="49" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="48"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="23"/>
+    </row>
+    <row r="49" spans="2:23" ht="18">
       <c r="B49" s="15">
         <v>1245</v>
       </c>
@@ -3627,33 +3859,35 @@
       <c r="F49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="48"/>
+      <c r="G49" s="44"/>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="22">
+      <c r="M49" s="2"/>
+      <c r="N49" s="22">
         <v>5206</v>
       </c>
-      <c r="N49" s="22" t="s">
+      <c r="O49" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="O49" s="23" t="s">
+      <c r="P49" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P49" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q49" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R49" s="52"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="24"/>
-    </row>
-    <row r="50" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R49" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" s="48"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="23"/>
+    </row>
+    <row r="50" spans="2:23" ht="18">
       <c r="B50" s="15">
         <v>1246</v>
       </c>
@@ -3669,35 +3903,39 @@
       <c r="F50" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="48"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="18"/>
-      <c r="M50" s="22">
+      <c r="K50" s="17"/>
+      <c r="N50" s="22">
         <v>5216</v>
       </c>
-      <c r="N50" s="22" t="s">
+      <c r="O50" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="P50" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P50" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q50" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R50" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S50" s="40"/>
-      <c r="T50" s="42" t="s">
+      <c r="T50" s="40"/>
+      <c r="U50" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U50" s="24"/>
-    </row>
-    <row r="51" spans="2:21" ht="18">
+      <c r="V50" s="24"/>
+      <c r="W50" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="18">
       <c r="B51" s="15">
         <v>1262</v>
       </c>
@@ -3713,31 +3951,33 @@
       <c r="F51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="48"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="18"/>
-      <c r="M51" s="22">
+      <c r="K51" s="17"/>
+      <c r="N51" s="22">
         <v>8023</v>
       </c>
-      <c r="N51" s="22" t="s">
+      <c r="O51" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="O51" s="23" t="s">
+      <c r="P51" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="P51" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q51" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R51" s="52"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="24"/>
-    </row>
-    <row r="52" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R51" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="48"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="23"/>
+    </row>
+    <row r="52" spans="2:23" ht="18">
       <c r="B52" s="15">
         <v>1263</v>
       </c>
@@ -3753,31 +3993,33 @@
       <c r="F52" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="48"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="18"/>
-      <c r="M52" s="22">
+      <c r="K52" s="17"/>
+      <c r="N52" s="22">
         <v>8208</v>
       </c>
-      <c r="N52" s="22" t="s">
+      <c r="O52" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O52" s="23" t="s">
+      <c r="P52" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="P52" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q52" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R52" s="52"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="24"/>
-    </row>
-    <row r="53" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" s="48"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="23"/>
+    </row>
+    <row r="53" spans="2:23" ht="18">
       <c r="B53" s="15">
         <v>1264</v>
       </c>
@@ -3793,31 +4035,33 @@
       <c r="F53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="48"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
       <c r="J53" s="18"/>
-      <c r="M53" s="22">
+      <c r="K53" s="17"/>
+      <c r="N53" s="22">
         <v>8209</v>
       </c>
-      <c r="N53" s="22" t="s">
+      <c r="O53" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="O53" s="23" t="s">
+      <c r="P53" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="P53" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q53" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R53" s="52"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="24"/>
-    </row>
-    <row r="54" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R53" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" s="48"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="23"/>
+    </row>
+    <row r="54" spans="2:23" ht="18">
       <c r="B54" s="15">
         <v>1265</v>
       </c>
@@ -3833,31 +4077,33 @@
       <c r="F54" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="48"/>
+      <c r="G54" s="44"/>
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="18"/>
-      <c r="M54" s="22">
+      <c r="K54" s="17"/>
+      <c r="N54" s="22">
         <v>8223</v>
       </c>
-      <c r="N54" s="22" t="s">
+      <c r="O54" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="O54" s="23" t="s">
+      <c r="P54" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="P54" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q54" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R54" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="R54" s="52"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="24"/>
-    </row>
-    <row r="55" spans="2:21" ht="18">
+      <c r="S54" s="48"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="23"/>
+    </row>
+    <row r="55" spans="2:23" ht="18">
       <c r="B55" s="15">
         <v>2201</v>
       </c>
@@ -3873,31 +4119,33 @@
       <c r="F55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="48"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="18"/>
-      <c r="M55" s="22">
+      <c r="K55" s="17"/>
+      <c r="N55" s="22">
         <v>8225</v>
       </c>
-      <c r="N55" s="22" t="s">
+      <c r="O55" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="O55" s="23" t="s">
+      <c r="P55" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q55" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R55" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="R55" s="52"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="24"/>
-    </row>
-    <row r="56" spans="2:21" ht="18">
+      <c r="S55" s="48"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="23"/>
+    </row>
+    <row r="56" spans="2:23" ht="18">
       <c r="B56" s="15">
         <v>2203</v>
       </c>
@@ -3913,31 +4161,33 @@
       <c r="F56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="48"/>
+      <c r="G56" s="44"/>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="18"/>
-      <c r="M56" s="22">
+      <c r="K56" s="17"/>
+      <c r="N56" s="22">
         <v>8231</v>
       </c>
-      <c r="N56" s="22" t="s">
+      <c r="O56" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="O56" s="23" t="s">
+      <c r="P56" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P56" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q56" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R56" s="52"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="24"/>
-    </row>
-    <row r="57" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R56" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S56" s="48"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="23"/>
+    </row>
+    <row r="57" spans="2:23" ht="18">
       <c r="B57" s="15">
         <v>2204</v>
       </c>
@@ -3953,33 +4203,37 @@
       <c r="F57" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="48"/>
+      <c r="G57" s="44"/>
       <c r="H57" s="38" t="s">
         <v>222</v>
       </c>
       <c r="I57" s="38"/>
       <c r="J57" s="18"/>
-      <c r="M57" s="22">
+      <c r="K57" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="N57" s="22">
         <v>8233</v>
       </c>
-      <c r="N57" s="22" t="s">
+      <c r="O57" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="P57" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P57" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q57" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R57" s="52"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="24"/>
-    </row>
-    <row r="58" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R57" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S57" s="48"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="23"/>
+    </row>
+    <row r="58" spans="2:23" ht="18">
       <c r="B58" s="15">
         <v>2205</v>
       </c>
@@ -3995,31 +4249,33 @@
       <c r="F58" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="48"/>
+      <c r="G58" s="44"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
       <c r="J58" s="18"/>
-      <c r="M58" s="22">
+      <c r="K58" s="17"/>
+      <c r="N58" s="22">
         <v>8234</v>
       </c>
-      <c r="N58" s="22" t="s">
+      <c r="O58" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="P58" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P58" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q58" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R58" s="52"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="24"/>
-    </row>
-    <row r="59" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R58" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S58" s="48"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="23"/>
+    </row>
+    <row r="59" spans="2:23" ht="18">
       <c r="B59" s="15">
         <v>2206</v>
       </c>
@@ -4035,31 +4291,33 @@
       <c r="F59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="48"/>
+      <c r="G59" s="44"/>
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="18"/>
-      <c r="M59" s="22">
+      <c r="K59" s="17"/>
+      <c r="N59" s="22">
         <v>8235</v>
       </c>
-      <c r="N59" s="22" t="s">
+      <c r="O59" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="P59" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="P59" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q59" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R59" s="52"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="24"/>
-    </row>
-    <row r="60" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R59" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S59" s="48"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="23"/>
+    </row>
+    <row r="60" spans="2:23" ht="18">
       <c r="B60" s="15">
         <v>2207</v>
       </c>
@@ -4075,31 +4333,33 @@
       <c r="F60" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="48"/>
+      <c r="G60" s="44"/>
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="18"/>
-      <c r="M60" s="22">
+      <c r="K60" s="17"/>
+      <c r="N60" s="22">
         <v>9206</v>
       </c>
-      <c r="N60" s="22" t="s">
+      <c r="O60" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="O60" s="23" t="s">
+      <c r="P60" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="P60" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q60" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R60" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R60" s="52"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="24"/>
-    </row>
-    <row r="61" spans="2:21" ht="18">
+      <c r="S60" s="48"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="23"/>
+    </row>
+    <row r="61" spans="2:23" ht="18">
       <c r="B61" s="15">
         <v>2208</v>
       </c>
@@ -4115,31 +4375,33 @@
       <c r="F61" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="48"/>
+      <c r="G61" s="44"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="18"/>
-      <c r="M61" s="22">
+      <c r="K61" s="17"/>
+      <c r="N61" s="22">
         <v>9207</v>
       </c>
-      <c r="N61" s="22" t="s">
+      <c r="O61" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="O61" s="23" t="s">
+      <c r="P61" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="P61" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q61" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R61" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R61" s="52"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="24"/>
-    </row>
-    <row r="62" spans="2:21" ht="18">
+      <c r="S61" s="48"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="23"/>
+    </row>
+    <row r="62" spans="2:23" ht="18">
       <c r="B62" s="15">
         <v>2262</v>
       </c>
@@ -4155,31 +4417,33 @@
       <c r="F62" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="48"/>
+      <c r="G62" s="44"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="18"/>
-      <c r="M62" s="22">
+      <c r="K62" s="17"/>
+      <c r="N62" s="22">
         <v>15201</v>
       </c>
-      <c r="N62" s="22" t="s">
+      <c r="O62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="23" t="s">
+      <c r="P62" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="P62" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q62" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R62" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R62" s="52"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="24"/>
-    </row>
-    <row r="63" spans="2:21" ht="18">
+      <c r="S62" s="48"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="23"/>
+    </row>
+    <row r="63" spans="2:23" ht="18">
       <c r="B63" s="15">
         <v>2263</v>
       </c>
@@ -4195,31 +4459,33 @@
       <c r="F63" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G63" s="48"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="18"/>
-      <c r="M63" s="22">
+      <c r="K63" s="17"/>
+      <c r="N63" s="22">
         <v>15202</v>
       </c>
-      <c r="N63" s="22" t="s">
+      <c r="O63" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="P63" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="P63" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q63" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R63" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R63" s="52"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="24"/>
-    </row>
-    <row r="64" spans="2:21">
+      <c r="S63" s="48"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="23"/>
+    </row>
+    <row r="64" spans="2:23">
       <c r="B64" s="15">
         <v>2264</v>
       </c>
@@ -4235,31 +4501,33 @@
       <c r="F64" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G64" s="48"/>
+      <c r="G64" s="44"/>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="18"/>
-      <c r="M64" s="22">
+      <c r="K64" s="17"/>
+      <c r="N64" s="22">
         <v>15216</v>
       </c>
-      <c r="N64" s="22" t="s">
+      <c r="O64" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="O64" s="23" t="s">
+      <c r="P64" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P64" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q64" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R64" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R64" s="52"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="24"/>
-    </row>
-    <row r="65" spans="2:21" ht="18">
+      <c r="S64" s="48"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="23"/>
+    </row>
+    <row r="65" spans="2:23" ht="18">
       <c r="B65" s="15">
         <v>2265</v>
       </c>
@@ -4275,31 +4543,33 @@
       <c r="F65" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="48"/>
+      <c r="G65" s="44"/>
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="18"/>
-      <c r="M65" s="22">
+      <c r="K65" s="17"/>
+      <c r="N65" s="22">
         <v>15222</v>
       </c>
-      <c r="N65" s="22" t="s">
+      <c r="O65" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="O65" s="23" t="s">
+      <c r="P65" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="P65" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q65" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R65" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R65" s="52"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="24"/>
-    </row>
-    <row r="66" spans="2:21" ht="18">
+      <c r="S65" s="48"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="23"/>
+    </row>
+    <row r="66" spans="2:23" ht="18">
       <c r="B66" s="15">
         <v>2269</v>
       </c>
@@ -4313,31 +4583,33 @@
       <c r="F66" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="48"/>
+      <c r="G66" s="44"/>
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="18"/>
-      <c r="M66" s="22">
+      <c r="K66" s="17"/>
+      <c r="N66" s="22">
         <v>15226</v>
       </c>
-      <c r="N66" s="22" t="s">
+      <c r="O66" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="O66" s="23" t="s">
+      <c r="P66" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="P66" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q66" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R66" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="52"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="24"/>
-    </row>
-    <row r="67" spans="2:21" ht="18">
+      <c r="S66" s="48"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="23"/>
+    </row>
+    <row r="67" spans="2:23" ht="18">
       <c r="B67" s="15">
         <v>2270</v>
       </c>
@@ -4351,31 +4623,33 @@
       <c r="F67" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G67" s="48"/>
+      <c r="G67" s="44"/>
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="18"/>
-      <c r="M67" s="22">
+      <c r="K67" s="17"/>
+      <c r="N67" s="22">
         <v>15227</v>
       </c>
-      <c r="N67" s="22" t="s">
+      <c r="O67" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="O67" s="23" t="s">
+      <c r="P67" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="P67" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q67" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R67" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R67" s="52"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="24"/>
-    </row>
-    <row r="68" spans="2:21" ht="18">
+      <c r="S67" s="48"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="23"/>
+    </row>
+    <row r="68" spans="2:23" ht="18">
       <c r="B68" s="15">
         <v>2271</v>
       </c>
@@ -4389,31 +4663,33 @@
       <c r="F68" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="48"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="18"/>
-      <c r="M68" s="22">
+      <c r="K68" s="17"/>
+      <c r="N68" s="22">
         <v>15228</v>
       </c>
-      <c r="N68" s="22" t="s">
+      <c r="O68" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="O68" s="23" t="s">
+      <c r="P68" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="P68" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q68" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R68" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R68" s="52"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="24"/>
-    </row>
-    <row r="69" spans="2:21" ht="18">
+      <c r="S68" s="48"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="23"/>
+    </row>
+    <row r="69" spans="2:23" ht="18">
       <c r="B69" s="15">
         <v>2272</v>
       </c>
@@ -4427,31 +4703,33 @@
       <c r="F69" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G69" s="48"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
       <c r="J69" s="18"/>
-      <c r="M69" s="22">
+      <c r="K69" s="17"/>
+      <c r="N69" s="22">
         <v>15235</v>
       </c>
-      <c r="N69" s="22" t="s">
+      <c r="O69" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="O69" s="23" t="s">
+      <c r="P69" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="P69" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q69" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R69" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R69" s="52"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="24"/>
-    </row>
-    <row r="70" spans="2:21" ht="18">
+      <c r="S69" s="48"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="23"/>
+    </row>
+    <row r="70" spans="2:23" ht="18">
       <c r="B70" s="15">
         <v>2273</v>
       </c>
@@ -4465,31 +4743,33 @@
       <c r="F70" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="48"/>
+      <c r="G70" s="44"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="18"/>
-      <c r="M70" s="22">
+      <c r="K70" s="17"/>
+      <c r="N70" s="22">
         <v>15242</v>
       </c>
-      <c r="N70" s="22" t="s">
+      <c r="O70" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="O70" s="23" t="s">
+      <c r="P70" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="P70" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q70" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R70" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R70" s="52"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="24"/>
-    </row>
-    <row r="71" spans="2:21">
+      <c r="S70" s="48"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="23"/>
+    </row>
+    <row r="71" spans="2:23">
       <c r="B71" s="15">
         <v>2274</v>
       </c>
@@ -4503,31 +4783,33 @@
       <c r="F71" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G71" s="48"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
       <c r="J71" s="18"/>
-      <c r="M71" s="22">
+      <c r="K71" s="17"/>
+      <c r="N71" s="22">
         <v>16202</v>
       </c>
-      <c r="N71" s="22" t="s">
+      <c r="O71" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="O71" s="23" t="s">
+      <c r="P71" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P71" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q71" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R71" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R71" s="52"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="42"/>
-      <c r="U71" s="24"/>
-    </row>
-    <row r="72" spans="2:21">
+      <c r="S71" s="48"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="23"/>
+    </row>
+    <row r="72" spans="2:23">
       <c r="B72" s="15">
         <v>2275</v>
       </c>
@@ -4541,31 +4823,33 @@
       <c r="F72" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="48"/>
+      <c r="G72" s="44"/>
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
       <c r="J72" s="18"/>
-      <c r="M72" s="22">
+      <c r="K72" s="17"/>
+      <c r="N72" s="22">
         <v>16203</v>
       </c>
-      <c r="N72" s="22" t="s">
+      <c r="O72" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O72" s="23" t="s">
+      <c r="P72" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P72" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q72" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R72" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R72" s="52"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="42"/>
-      <c r="U72" s="24"/>
-    </row>
-    <row r="73" spans="2:21">
+      <c r="S72" s="48"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="23"/>
+    </row>
+    <row r="73" spans="2:23">
       <c r="B73" s="15">
         <v>2276</v>
       </c>
@@ -4579,35 +4863,39 @@
       <c r="F73" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G73" s="48"/>
+      <c r="G73" s="44"/>
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
       <c r="J73" s="18"/>
-      <c r="M73" s="22">
+      <c r="K73" s="17"/>
+      <c r="N73" s="22">
         <v>16204</v>
       </c>
-      <c r="N73" s="22" t="s">
+      <c r="O73" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="O73" s="23" t="s">
+      <c r="P73" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="P73" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="Q73" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R73" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="R73" s="52" t="s">
+      <c r="S73" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="S73" s="40"/>
-      <c r="T73" s="42" t="s">
+      <c r="T73" s="40"/>
+      <c r="U73" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U73" s="24"/>
-    </row>
-    <row r="74" spans="2:21">
+      <c r="V73" s="24"/>
+      <c r="W73" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23">
       <c r="B74" s="15">
         <v>2277</v>
       </c>
@@ -4621,31 +4909,33 @@
       <c r="F74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G74" s="48"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
       <c r="J74" s="18"/>
-      <c r="M74" s="25">
+      <c r="K74" s="17"/>
+      <c r="N74" s="25">
         <v>16222</v>
       </c>
-      <c r="N74" s="25" t="s">
+      <c r="O74" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="O74" s="26" t="s">
+      <c r="P74" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P74" s="27" t="s">
-        <v>6</v>
-      </c>
       <c r="Q74" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="R74" s="53"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="27"/>
-    </row>
-    <row r="75" spans="2:21" ht="18">
+        <v>6</v>
+      </c>
+      <c r="R74" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S74" s="49"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="26"/>
+    </row>
+    <row r="75" spans="2:23" ht="18">
       <c r="B75" s="15">
         <v>2278</v>
       </c>
@@ -4661,12 +4951,13 @@
       <c r="F75" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="48"/>
+      <c r="G75" s="44"/>
       <c r="H75" s="38"/>
       <c r="I75" s="38"/>
       <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="2:21">
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="2:23">
       <c r="B76" s="15">
         <v>3026</v>
       </c>
@@ -4682,12 +4973,13 @@
       <c r="F76" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="48"/>
+      <c r="G76" s="44"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
       <c r="J76" s="18"/>
-    </row>
-    <row r="77" spans="2:21" ht="18">
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="2:23" ht="18">
       <c r="B77" s="15">
         <v>3201</v>
       </c>
@@ -4703,12 +4995,13 @@
       <c r="F77" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="48"/>
+      <c r="G77" s="44"/>
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
       <c r="J77" s="18"/>
-    </row>
-    <row r="78" spans="2:21" ht="18">
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="2:23" ht="18">
       <c r="B78" s="15">
         <v>3202</v>
       </c>
@@ -4724,12 +5017,13 @@
       <c r="F78" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="48"/>
+      <c r="G78" s="44"/>
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
       <c r="J78" s="18"/>
-    </row>
-    <row r="79" spans="2:21" ht="18">
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="2:23" ht="18">
       <c r="B79" s="15">
         <v>3217</v>
       </c>
@@ -4745,12 +5039,13 @@
       <c r="F79" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="48"/>
+      <c r="G79" s="44"/>
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
       <c r="J79" s="18"/>
-    </row>
-    <row r="80" spans="2:21" ht="18">
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="2:23" ht="18">
       <c r="B80" s="15">
         <v>3223</v>
       </c>
@@ -4766,12 +5061,13 @@
       <c r="F80" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="48"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="38"/>
       <c r="I80" s="38"/>
       <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="2:10" ht="18">
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="2:11" ht="18">
       <c r="B81" s="15">
         <v>3224</v>
       </c>
@@ -4787,12 +5083,13 @@
       <c r="F81" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="48"/>
+      <c r="G81" s="44"/>
       <c r="H81" s="38"/>
       <c r="I81" s="38"/>
       <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="2:10" ht="18">
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="2:11" ht="18">
       <c r="B82" s="15">
         <v>3225</v>
       </c>
@@ -4808,12 +5105,13 @@
       <c r="F82" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="48"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
       <c r="J82" s="18"/>
-    </row>
-    <row r="83" spans="2:10" ht="18">
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="2:11" ht="18">
       <c r="B83" s="15">
         <v>3226</v>
       </c>
@@ -4829,12 +5127,13 @@
       <c r="F83" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="48"/>
+      <c r="G83" s="44"/>
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
       <c r="J83" s="18"/>
-    </row>
-    <row r="84" spans="2:10" ht="18">
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="2:11" ht="18">
       <c r="B84" s="15">
         <v>3228</v>
       </c>
@@ -4850,12 +5149,13 @@
       <c r="F84" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="48"/>
+      <c r="G84" s="44"/>
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
       <c r="J84" s="18"/>
-    </row>
-    <row r="85" spans="2:10" ht="18">
+      <c r="K84" s="17"/>
+    </row>
+    <row r="85" spans="2:11" ht="18">
       <c r="B85" s="15">
         <v>3232</v>
       </c>
@@ -4871,12 +5171,13 @@
       <c r="F85" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="48"/>
+      <c r="G85" s="44"/>
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
       <c r="J85" s="18"/>
-    </row>
-    <row r="86" spans="2:10" ht="18">
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="2:11" ht="18">
       <c r="B86" s="15">
         <v>3234</v>
       </c>
@@ -4892,7 +5193,7 @@
       <c r="F86" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="48" t="s">
+      <c r="G86" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H86" s="38"/>
@@ -4900,8 +5201,11 @@
         <v>223</v>
       </c>
       <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="K86" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
       <c r="B87" s="15">
         <v>3236</v>
       </c>
@@ -4917,7 +5221,7 @@
       <c r="F87" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="48" t="s">
+      <c r="G87" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H87" s="38"/>
@@ -4925,8 +5229,11 @@
         <v>223</v>
       </c>
       <c r="J87" s="18"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="K87" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
       <c r="B88" s="15">
         <v>3236</v>
       </c>
@@ -4942,7 +5249,7 @@
       <c r="F88" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="48" t="s">
+      <c r="G88" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H88" s="38"/>
@@ -4950,8 +5257,11 @@
         <v>223</v>
       </c>
       <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="K88" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
       <c r="B89" s="15">
         <v>3236</v>
       </c>
@@ -4967,7 +5277,7 @@
       <c r="F89" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="48" t="s">
+      <c r="G89" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H89" s="38"/>
@@ -4975,8 +5285,11 @@
         <v>223</v>
       </c>
       <c r="J89" s="18"/>
-    </row>
-    <row r="90" spans="2:10" ht="18">
+      <c r="K89" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="18">
       <c r="B90" s="15">
         <v>3237</v>
       </c>
@@ -4992,7 +5305,7 @@
       <c r="F90" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G90" s="48" t="s">
+      <c r="G90" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H90" s="38"/>
@@ -5000,8 +5313,9 @@
         <v>223</v>
       </c>
       <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="K90" s="17"/>
+    </row>
+    <row r="91" spans="2:11">
       <c r="B91" s="15">
         <v>3245</v>
       </c>
@@ -5017,7 +5331,7 @@
       <c r="F91" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G91" s="48" t="s">
+      <c r="G91" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H91" s="38" t="s">
@@ -5027,8 +5341,9 @@
         <v>223</v>
       </c>
       <c r="J91" s="18"/>
-    </row>
-    <row r="92" spans="2:10" ht="18">
+      <c r="K91" s="17"/>
+    </row>
+    <row r="92" spans="2:11" ht="18">
       <c r="B92" s="15">
         <v>3249</v>
       </c>
@@ -5044,7 +5359,7 @@
       <c r="F92" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="48" t="s">
+      <c r="G92" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H92" s="38"/>
@@ -5052,8 +5367,9 @@
         <v>223</v>
       </c>
       <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="2:10" ht="18">
+      <c r="K92" s="17"/>
+    </row>
+    <row r="93" spans="2:11" ht="18">
       <c r="B93" s="15">
         <v>3249</v>
       </c>
@@ -5069,7 +5385,7 @@
       <c r="F93" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="48" t="s">
+      <c r="G93" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H93" s="38"/>
@@ -5077,8 +5393,9 @@
         <v>223</v>
       </c>
       <c r="J93" s="18"/>
-    </row>
-    <row r="94" spans="2:10">
+      <c r="K93" s="17"/>
+    </row>
+    <row r="94" spans="2:11">
       <c r="B94" s="15">
         <v>3254</v>
       </c>
@@ -5094,12 +5411,13 @@
       <c r="F94" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G94" s="48"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="38"/>
       <c r="I94" s="38"/>
       <c r="J94" s="18"/>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="2:11">
       <c r="B95" s="15">
         <v>3255</v>
       </c>
@@ -5115,12 +5433,13 @@
       <c r="F95" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="48"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="38"/>
       <c r="I95" s="38"/>
       <c r="J95" s="18"/>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="2:11">
       <c r="B96" s="15">
         <v>3259</v>
       </c>
@@ -5134,12 +5453,13 @@
       <c r="F96" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="48"/>
+      <c r="G96" s="44"/>
       <c r="H96" s="38"/>
       <c r="I96" s="38"/>
       <c r="J96" s="18"/>
-    </row>
-    <row r="97" spans="2:10" ht="18">
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="2:11" ht="18">
       <c r="B97" s="15">
         <v>3270</v>
       </c>
@@ -5155,12 +5475,13 @@
       <c r="F97" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="48"/>
+      <c r="G97" s="44"/>
       <c r="H97" s="38"/>
       <c r="I97" s="38"/>
       <c r="J97" s="18"/>
-    </row>
-    <row r="98" spans="2:10" ht="18">
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="2:11" ht="18">
       <c r="B98" s="15">
         <v>3271</v>
       </c>
@@ -5176,12 +5497,13 @@
       <c r="F98" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="48"/>
+      <c r="G98" s="44"/>
       <c r="H98" s="38"/>
       <c r="I98" s="38"/>
       <c r="J98" s="18"/>
-    </row>
-    <row r="99" spans="2:10" ht="18">
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="2:11" ht="18">
       <c r="B99" s="15">
         <v>3272</v>
       </c>
@@ -5197,12 +5519,13 @@
       <c r="F99" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="48"/>
+      <c r="G99" s="44"/>
       <c r="H99" s="38"/>
       <c r="I99" s="38"/>
       <c r="J99" s="18"/>
-    </row>
-    <row r="100" spans="2:10" ht="18">
+      <c r="K99" s="17"/>
+    </row>
+    <row r="100" spans="2:11" ht="18">
       <c r="B100" s="15">
         <v>3273</v>
       </c>
@@ -5218,12 +5541,13 @@
       <c r="F100" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G100" s="48"/>
+      <c r="G100" s="44"/>
       <c r="H100" s="38"/>
       <c r="I100" s="38"/>
       <c r="J100" s="18"/>
-    </row>
-    <row r="101" spans="2:10" ht="18">
+      <c r="K100" s="17"/>
+    </row>
+    <row r="101" spans="2:11" ht="18">
       <c r="B101" s="15">
         <v>3296</v>
       </c>
@@ -5239,7 +5563,7 @@
       <c r="F101" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="48" t="s">
+      <c r="G101" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H101" s="38" t="s">
@@ -5249,8 +5573,11 @@
         <v>223</v>
       </c>
       <c r="J101" s="18"/>
-    </row>
-    <row r="102" spans="2:10" ht="18">
+      <c r="K101" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="18">
       <c r="B102" s="15">
         <v>3297</v>
       </c>
@@ -5266,7 +5593,7 @@
       <c r="F102" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G102" s="48" t="s">
+      <c r="G102" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H102" s="38" t="s">
@@ -5276,8 +5603,11 @@
         <v>223</v>
       </c>
       <c r="J102" s="18"/>
-    </row>
-    <row r="103" spans="2:10" ht="18">
+      <c r="K102" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="18">
       <c r="B103" s="15">
         <v>3298</v>
       </c>
@@ -5293,7 +5623,7 @@
       <c r="F103" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="48" t="s">
+      <c r="G103" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H103" s="38"/>
@@ -5301,8 +5631,11 @@
         <v>223</v>
       </c>
       <c r="J103" s="18"/>
-    </row>
-    <row r="104" spans="2:10" ht="18">
+      <c r="K103" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="18">
       <c r="B104" s="15">
         <v>3299</v>
       </c>
@@ -5318,7 +5651,7 @@
       <c r="F104" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G104" s="48" t="s">
+      <c r="G104" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H104" s="38"/>
@@ -5326,8 +5659,11 @@
         <v>223</v>
       </c>
       <c r="J104" s="18"/>
-    </row>
-    <row r="105" spans="2:10" ht="18">
+      <c r="K104" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="18">
       <c r="B105" s="15">
         <v>3312</v>
       </c>
@@ -5343,7 +5679,7 @@
       <c r="F105" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="48" t="s">
+      <c r="G105" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H105" s="38" t="s">
@@ -5353,8 +5689,11 @@
         <v>223</v>
       </c>
       <c r="J105" s="18"/>
-    </row>
-    <row r="106" spans="2:10">
+      <c r="K105" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
       <c r="B106" s="15">
         <v>3313</v>
       </c>
@@ -5368,7 +5707,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="7"/>
-      <c r="G106" s="48" t="s">
+      <c r="G106" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H106" s="38"/>
@@ -5376,8 +5715,11 @@
         <v>223</v>
       </c>
       <c r="J106" s="7"/>
-    </row>
-    <row r="107" spans="2:10" ht="18">
+      <c r="K106" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="18">
       <c r="B107" s="15">
         <v>3463</v>
       </c>
@@ -5393,12 +5735,13 @@
       <c r="F107" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G107" s="48"/>
+      <c r="G107" s="44"/>
       <c r="H107" s="38"/>
       <c r="I107" s="38"/>
       <c r="J107" s="18"/>
-    </row>
-    <row r="108" spans="2:10">
+      <c r="K107" s="17"/>
+    </row>
+    <row r="108" spans="2:11">
       <c r="B108" s="15">
         <v>3510</v>
       </c>
@@ -5412,7 +5755,7 @@
       <c r="F108" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="48" t="s">
+      <c r="G108" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H108" s="38"/>
@@ -5420,8 +5763,11 @@
         <v>223</v>
       </c>
       <c r="J108" s="18"/>
-    </row>
-    <row r="109" spans="2:10">
+      <c r="K108" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
       <c r="B109" s="15">
         <v>3511</v>
       </c>
@@ -5435,7 +5781,7 @@
       <c r="F109" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="48" t="s">
+      <c r="G109" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H109" s="38"/>
@@ -5443,8 +5789,11 @@
         <v>223</v>
       </c>
       <c r="J109" s="18"/>
-    </row>
-    <row r="110" spans="2:10" ht="18">
+      <c r="K109" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="18">
       <c r="B110" s="15">
         <v>4203</v>
       </c>
@@ -5460,12 +5809,13 @@
       <c r="F110" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="48"/>
+      <c r="G110" s="44"/>
       <c r="H110" s="38"/>
       <c r="I110" s="38"/>
       <c r="J110" s="18"/>
-    </row>
-    <row r="111" spans="2:10" ht="18">
+      <c r="K110" s="17"/>
+    </row>
+    <row r="111" spans="2:11" ht="18">
       <c r="B111" s="15">
         <v>4204</v>
       </c>
@@ -5481,12 +5831,13 @@
       <c r="F111" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G111" s="48"/>
+      <c r="G111" s="44"/>
       <c r="H111" s="38"/>
       <c r="I111" s="38"/>
       <c r="J111" s="18"/>
-    </row>
-    <row r="112" spans="2:10">
+      <c r="K111" s="17"/>
+    </row>
+    <row r="112" spans="2:11">
       <c r="B112" s="15">
         <v>4205</v>
       </c>
@@ -5500,12 +5851,13 @@
       <c r="F112" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="48"/>
+      <c r="G112" s="44"/>
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
       <c r="J112" s="18"/>
-    </row>
-    <row r="113" spans="2:10">
+      <c r="K112" s="17"/>
+    </row>
+    <row r="113" spans="2:11">
       <c r="B113" s="15">
         <v>4206</v>
       </c>
@@ -5519,12 +5871,13 @@
       <c r="F113" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G113" s="48"/>
+      <c r="G113" s="44"/>
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
       <c r="J113" s="18"/>
-    </row>
-    <row r="114" spans="2:10" ht="18">
+      <c r="K113" s="17"/>
+    </row>
+    <row r="114" spans="2:11" ht="18">
       <c r="B114" s="15">
         <v>4216</v>
       </c>
@@ -5540,12 +5893,13 @@
       <c r="F114" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="48"/>
+      <c r="G114" s="44"/>
       <c r="H114" s="38"/>
       <c r="I114" s="38"/>
       <c r="J114" s="18"/>
-    </row>
-    <row r="115" spans="2:10" ht="18">
+      <c r="K114" s="17"/>
+    </row>
+    <row r="115" spans="2:11" ht="18">
       <c r="B115" s="15">
         <v>4217</v>
       </c>
@@ -5561,12 +5915,13 @@
       <c r="F115" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="48"/>
+      <c r="G115" s="44"/>
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
       <c r="J115" s="18"/>
-    </row>
-    <row r="116" spans="2:10" ht="18">
+      <c r="K115" s="17"/>
+    </row>
+    <row r="116" spans="2:11" ht="18">
       <c r="B116" s="15">
         <v>4218</v>
       </c>
@@ -5582,12 +5937,13 @@
       <c r="F116" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="48"/>
+      <c r="G116" s="44"/>
       <c r="H116" s="38"/>
       <c r="I116" s="38"/>
       <c r="J116" s="18"/>
-    </row>
-    <row r="117" spans="2:10" ht="18">
+      <c r="K116" s="17"/>
+    </row>
+    <row r="117" spans="2:11" ht="18">
       <c r="B117" s="15">
         <v>4219</v>
       </c>
@@ -5603,12 +5959,13 @@
       <c r="F117" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="48"/>
+      <c r="G117" s="44"/>
       <c r="H117" s="38"/>
       <c r="I117" s="38"/>
       <c r="J117" s="18"/>
-    </row>
-    <row r="118" spans="2:10" ht="18">
+      <c r="K117" s="17"/>
+    </row>
+    <row r="118" spans="2:11" ht="18">
       <c r="B118" s="15">
         <v>5205</v>
       </c>
@@ -5624,12 +5981,13 @@
       <c r="F118" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="48"/>
+      <c r="G118" s="44"/>
       <c r="H118" s="38"/>
       <c r="I118" s="38"/>
       <c r="J118" s="18"/>
-    </row>
-    <row r="119" spans="2:10" ht="18">
+      <c r="K118" s="17"/>
+    </row>
+    <row r="119" spans="2:11" ht="18">
       <c r="B119" s="15">
         <v>5206</v>
       </c>
@@ -5645,12 +6003,13 @@
       <c r="F119" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="48"/>
+      <c r="G119" s="44"/>
       <c r="H119" s="38"/>
       <c r="I119" s="38"/>
       <c r="J119" s="18"/>
-    </row>
-    <row r="120" spans="2:10">
+      <c r="K119" s="17"/>
+    </row>
+    <row r="120" spans="2:11">
       <c r="B120" s="15">
         <v>5209</v>
       </c>
@@ -5666,12 +6025,13 @@
       <c r="F120" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G120" s="48"/>
+      <c r="G120" s="44"/>
       <c r="H120" s="38"/>
       <c r="I120" s="38"/>
       <c r="J120" s="18"/>
-    </row>
-    <row r="121" spans="2:10">
+      <c r="K120" s="17"/>
+    </row>
+    <row r="121" spans="2:11">
       <c r="B121" s="15">
         <v>5209</v>
       </c>
@@ -5687,12 +6047,13 @@
       <c r="F121" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G121" s="48"/>
+      <c r="G121" s="44"/>
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
       <c r="J121" s="18"/>
-    </row>
-    <row r="122" spans="2:10">
+      <c r="K121" s="17"/>
+    </row>
+    <row r="122" spans="2:11">
       <c r="B122" s="15">
         <v>5212</v>
       </c>
@@ -5708,12 +6069,13 @@
       <c r="F122" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="48"/>
+      <c r="G122" s="44"/>
       <c r="H122" s="38"/>
       <c r="I122" s="38"/>
       <c r="J122" s="18"/>
-    </row>
-    <row r="123" spans="2:10" ht="18">
+      <c r="K122" s="17"/>
+    </row>
+    <row r="123" spans="2:11" ht="18">
       <c r="B123" s="15">
         <v>5216</v>
       </c>
@@ -5729,7 +6091,7 @@
       <c r="F123" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="48" t="s">
+      <c r="G123" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H123" s="38" t="s">
@@ -5737,8 +6099,11 @@
       </c>
       <c r="I123" s="38"/>
       <c r="J123" s="18"/>
-    </row>
-    <row r="124" spans="2:10" ht="18">
+      <c r="K123" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" ht="18">
       <c r="B124" s="15">
         <v>5234</v>
       </c>
@@ -5754,12 +6119,13 @@
       <c r="F124" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G124" s="48"/>
+      <c r="G124" s="44"/>
       <c r="H124" s="38"/>
       <c r="I124" s="38"/>
       <c r="J124" s="18"/>
-    </row>
-    <row r="125" spans="2:10" ht="18">
+      <c r="K124" s="17"/>
+    </row>
+    <row r="125" spans="2:11" ht="18">
       <c r="B125" s="15">
         <v>5238</v>
       </c>
@@ -5775,12 +6141,13 @@
       <c r="F125" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="48"/>
+      <c r="G125" s="44"/>
       <c r="H125" s="38"/>
       <c r="I125" s="38"/>
       <c r="J125" s="18"/>
-    </row>
-    <row r="126" spans="2:10" ht="18">
+      <c r="K125" s="17"/>
+    </row>
+    <row r="126" spans="2:11" ht="18">
       <c r="B126" s="15">
         <v>5239</v>
       </c>
@@ -5796,12 +6163,13 @@
       <c r="F126" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G126" s="48"/>
+      <c r="G126" s="44"/>
       <c r="H126" s="38"/>
       <c r="I126" s="38"/>
       <c r="J126" s="18"/>
-    </row>
-    <row r="127" spans="2:10" ht="18">
+      <c r="K126" s="17"/>
+    </row>
+    <row r="127" spans="2:11" ht="18">
       <c r="B127" s="15">
         <v>5240</v>
       </c>
@@ -5817,12 +6185,13 @@
       <c r="F127" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="48"/>
+      <c r="G127" s="44"/>
       <c r="H127" s="38"/>
       <c r="I127" s="38"/>
       <c r="J127" s="18"/>
-    </row>
-    <row r="128" spans="2:10" ht="18">
+      <c r="K127" s="17"/>
+    </row>
+    <row r="128" spans="2:11" ht="18">
       <c r="B128" s="15">
         <v>5241</v>
       </c>
@@ -5838,12 +6207,13 @@
       <c r="F128" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="48"/>
+      <c r="G128" s="44"/>
       <c r="H128" s="38"/>
       <c r="I128" s="38"/>
       <c r="J128" s="18"/>
-    </row>
-    <row r="129" spans="2:12" ht="18">
+      <c r="K128" s="17"/>
+    </row>
+    <row r="129" spans="2:13" ht="18">
       <c r="B129" s="15">
         <v>8023</v>
       </c>
@@ -5859,12 +6229,13 @@
       <c r="F129" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G129" s="49"/>
+      <c r="G129" s="45"/>
       <c r="H129" s="39"/>
       <c r="I129" s="39"/>
       <c r="J129" s="28"/>
-    </row>
-    <row r="130" spans="2:12" ht="18">
+      <c r="K129" s="57"/>
+    </row>
+    <row r="130" spans="2:13" ht="18">
       <c r="B130" s="15">
         <v>8208</v>
       </c>
@@ -5880,14 +6251,17 @@
       <c r="F130" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G130" s="48" t="s">
+      <c r="G130" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H130" s="38"/>
       <c r="I130" s="38"/>
       <c r="J130" s="18"/>
-    </row>
-    <row r="131" spans="2:12" ht="18">
+      <c r="K130" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" ht="18">
       <c r="B131" s="15">
         <v>8209</v>
       </c>
@@ -5903,13 +6277,14 @@
       <c r="F131" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="48"/>
+      <c r="G131" s="44"/>
       <c r="H131" s="38"/>
       <c r="I131" s="38"/>
       <c r="J131" s="18"/>
-      <c r="L131" s="30"/>
-    </row>
-    <row r="132" spans="2:12" ht="18">
+      <c r="K131" s="17"/>
+      <c r="M131" s="30"/>
+    </row>
+    <row r="132" spans="2:13" ht="18">
       <c r="B132" s="15">
         <v>8223</v>
       </c>
@@ -5925,15 +6300,18 @@
       <c r="F132" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G132" s="48" t="s">
+      <c r="G132" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H132" s="38"/>
       <c r="I132" s="38"/>
       <c r="J132" s="18"/>
-      <c r="K132" s="30"/>
-    </row>
-    <row r="133" spans="2:12">
+      <c r="K132" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="L132" s="30"/>
+    </row>
+    <row r="133" spans="2:13">
       <c r="B133" s="15">
         <v>8225</v>
       </c>
@@ -5949,15 +6327,18 @@
       <c r="F133" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G133" s="48" t="s">
+      <c r="G133" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H133" s="38"/>
       <c r="I133" s="38"/>
       <c r="J133" s="18"/>
-      <c r="K133" s="30"/>
-    </row>
-    <row r="134" spans="2:12">
+      <c r="K133" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="L133" s="30"/>
+    </row>
+    <row r="134" spans="2:13">
       <c r="B134" s="15">
         <v>8229</v>
       </c>
@@ -5973,13 +6354,14 @@
       <c r="F134" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G134" s="48"/>
+      <c r="G134" s="44"/>
       <c r="H134" s="38"/>
       <c r="I134" s="38"/>
       <c r="J134" s="18"/>
-      <c r="K134" s="30"/>
-    </row>
-    <row r="135" spans="2:12">
+      <c r="K134" s="17"/>
+      <c r="L134" s="30"/>
+    </row>
+    <row r="135" spans="2:13">
       <c r="B135" s="15">
         <v>8230</v>
       </c>
@@ -5995,13 +6377,14 @@
       <c r="F135" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G135" s="48"/>
+      <c r="G135" s="44"/>
       <c r="H135" s="38"/>
       <c r="I135" s="38"/>
       <c r="J135" s="18"/>
-      <c r="K135" s="30"/>
-    </row>
-    <row r="136" spans="2:12" ht="18">
+      <c r="K135" s="17"/>
+      <c r="L135" s="30"/>
+    </row>
+    <row r="136" spans="2:13" ht="18">
       <c r="B136" s="15">
         <v>8231</v>
       </c>
@@ -6017,13 +6400,14 @@
       <c r="F136" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G136" s="48"/>
+      <c r="G136" s="44"/>
       <c r="H136" s="38"/>
       <c r="I136" s="38"/>
       <c r="J136" s="18"/>
-      <c r="L136" s="30"/>
-    </row>
-    <row r="137" spans="2:12" ht="18">
+      <c r="K136" s="17"/>
+      <c r="M136" s="30"/>
+    </row>
+    <row r="137" spans="2:13" ht="18">
       <c r="B137" s="15">
         <v>8233</v>
       </c>
@@ -6039,13 +6423,14 @@
       <c r="F137" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G137" s="48"/>
+      <c r="G137" s="44"/>
       <c r="H137" s="38"/>
       <c r="I137" s="38"/>
       <c r="J137" s="18"/>
-      <c r="L137" s="30"/>
-    </row>
-    <row r="138" spans="2:12" ht="18">
+      <c r="K137" s="17"/>
+      <c r="M137" s="30"/>
+    </row>
+    <row r="138" spans="2:13" ht="18">
       <c r="B138" s="15">
         <v>8234</v>
       </c>
@@ -6061,13 +6446,14 @@
       <c r="F138" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G138" s="48"/>
+      <c r="G138" s="44"/>
       <c r="H138" s="38"/>
       <c r="I138" s="38"/>
       <c r="J138" s="18"/>
-      <c r="L138" s="30"/>
-    </row>
-    <row r="139" spans="2:12" ht="18">
+      <c r="K138" s="17"/>
+      <c r="M138" s="30"/>
+    </row>
+    <row r="139" spans="2:13" ht="18">
       <c r="B139" s="15">
         <v>8235</v>
       </c>
@@ -6083,13 +6469,14 @@
       <c r="F139" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G139" s="48"/>
+      <c r="G139" s="44"/>
       <c r="H139" s="38"/>
       <c r="I139" s="38"/>
       <c r="J139" s="18"/>
-      <c r="L139" s="30"/>
-    </row>
-    <row r="140" spans="2:12">
+      <c r="K139" s="17"/>
+      <c r="M139" s="30"/>
+    </row>
+    <row r="140" spans="2:13">
       <c r="B140" s="15">
         <v>9201</v>
       </c>
@@ -6105,13 +6492,14 @@
       <c r="F140" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G140" s="48"/>
+      <c r="G140" s="44"/>
       <c r="H140" s="38"/>
       <c r="I140" s="38"/>
       <c r="J140" s="18"/>
-      <c r="L140" s="30"/>
-    </row>
-    <row r="141" spans="2:12" ht="18">
+      <c r="K140" s="17"/>
+      <c r="M140" s="30"/>
+    </row>
+    <row r="141" spans="2:13" ht="18">
       <c r="B141" s="15">
         <v>9206</v>
       </c>
@@ -6127,13 +6515,14 @@
       <c r="F141" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G141" s="48"/>
+      <c r="G141" s="44"/>
       <c r="H141" s="38"/>
       <c r="I141" s="38"/>
       <c r="J141" s="18"/>
-      <c r="L141" s="30"/>
-    </row>
-    <row r="142" spans="2:12" ht="18">
+      <c r="K141" s="17"/>
+      <c r="M141" s="30"/>
+    </row>
+    <row r="142" spans="2:13" ht="18">
       <c r="B142" s="15">
         <v>9207</v>
       </c>
@@ -6149,13 +6538,14 @@
       <c r="F142" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G142" s="48"/>
+      <c r="G142" s="44"/>
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
       <c r="J142" s="18"/>
-      <c r="L142" s="30"/>
-    </row>
-    <row r="143" spans="2:12">
+      <c r="K142" s="17"/>
+      <c r="M142" s="30"/>
+    </row>
+    <row r="143" spans="2:13">
       <c r="B143" s="15">
         <v>9282</v>
       </c>
@@ -6171,13 +6561,14 @@
       <c r="F143" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G143" s="48"/>
+      <c r="G143" s="44"/>
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
       <c r="J143" s="18"/>
-      <c r="L143" s="30"/>
-    </row>
-    <row r="144" spans="2:12" ht="18">
+      <c r="K143" s="17"/>
+      <c r="M143" s="30"/>
+    </row>
+    <row r="144" spans="2:13" ht="18">
       <c r="B144" s="15">
         <v>12201</v>
       </c>
@@ -6193,13 +6584,14 @@
       <c r="F144" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G144" s="48"/>
+      <c r="G144" s="44"/>
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
       <c r="J144" s="18"/>
-      <c r="L144" s="30"/>
-    </row>
-    <row r="145" spans="2:12" ht="18">
+      <c r="K144" s="17"/>
+      <c r="M144" s="30"/>
+    </row>
+    <row r="145" spans="2:13" ht="18">
       <c r="B145" s="15">
         <v>15201</v>
       </c>
@@ -6215,14 +6607,15 @@
       <c r="F145" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G145" s="48"/>
+      <c r="G145" s="44"/>
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
       <c r="J145" s="18"/>
-      <c r="K145" s="30"/>
+      <c r="K145" s="17"/>
       <c r="L145" s="30"/>
-    </row>
-    <row r="146" spans="2:12" ht="18">
+      <c r="M145" s="30"/>
+    </row>
+    <row r="146" spans="2:13" ht="18">
       <c r="B146" s="15">
         <v>15202</v>
       </c>
@@ -6238,14 +6631,15 @@
       <c r="F146" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G146" s="48"/>
+      <c r="G146" s="44"/>
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
       <c r="J146" s="18"/>
-      <c r="K146" s="30"/>
+      <c r="K146" s="17"/>
       <c r="L146" s="30"/>
-    </row>
-    <row r="147" spans="2:12" ht="18">
+      <c r="M146" s="30"/>
+    </row>
+    <row r="147" spans="2:13" ht="18">
       <c r="B147" s="15">
         <v>15214</v>
       </c>
@@ -6261,14 +6655,15 @@
       <c r="F147" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G147" s="48"/>
+      <c r="G147" s="44"/>
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
       <c r="J147" s="18"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="31"/>
-    </row>
-    <row r="148" spans="2:12" ht="18">
+      <c r="K147" s="17"/>
+      <c r="L147" s="30"/>
+      <c r="M147" s="31"/>
+    </row>
+    <row r="148" spans="2:13" ht="18">
       <c r="B148" s="15">
         <v>15215</v>
       </c>
@@ -6284,14 +6679,15 @@
       <c r="F148" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G148" s="48"/>
+      <c r="G148" s="44"/>
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
       <c r="J148" s="18"/>
-      <c r="K148" s="30"/>
+      <c r="K148" s="17"/>
       <c r="L148" s="30"/>
-    </row>
-    <row r="149" spans="2:12">
+      <c r="M148" s="30"/>
+    </row>
+    <row r="149" spans="2:13">
       <c r="B149" s="15">
         <v>15216</v>
       </c>
@@ -6307,14 +6703,15 @@
       <c r="F149" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G149" s="48"/>
+      <c r="G149" s="44"/>
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
       <c r="J149" s="18"/>
-      <c r="K149" s="30"/>
+      <c r="K149" s="17"/>
       <c r="L149" s="30"/>
-    </row>
-    <row r="150" spans="2:12" ht="18">
+      <c r="M149" s="30"/>
+    </row>
+    <row r="150" spans="2:13" ht="18">
       <c r="B150" s="15">
         <v>15217</v>
       </c>
@@ -6330,14 +6727,15 @@
       <c r="F150" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G150" s="48"/>
+      <c r="G150" s="44"/>
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
       <c r="J150" s="18"/>
-      <c r="K150" s="30"/>
+      <c r="K150" s="17"/>
       <c r="L150" s="30"/>
-    </row>
-    <row r="151" spans="2:12" ht="18">
+      <c r="M150" s="30"/>
+    </row>
+    <row r="151" spans="2:13" ht="18">
       <c r="B151" s="15">
         <v>15218</v>
       </c>
@@ -6353,14 +6751,15 @@
       <c r="F151" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G151" s="48"/>
+      <c r="G151" s="44"/>
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
       <c r="J151" s="18"/>
-      <c r="K151" s="30"/>
+      <c r="K151" s="17"/>
       <c r="L151" s="30"/>
-    </row>
-    <row r="152" spans="2:12" ht="18">
+      <c r="M151" s="30"/>
+    </row>
+    <row r="152" spans="2:13" ht="18">
       <c r="B152" s="15">
         <v>15219</v>
       </c>
@@ -6376,14 +6775,15 @@
       <c r="F152" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G152" s="48"/>
+      <c r="G152" s="44"/>
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
       <c r="J152" s="18"/>
-      <c r="K152" s="30"/>
+      <c r="K152" s="17"/>
       <c r="L152" s="30"/>
-    </row>
-    <row r="153" spans="2:12" ht="18">
+      <c r="M152" s="30"/>
+    </row>
+    <row r="153" spans="2:13" ht="18">
       <c r="B153" s="15">
         <v>15220</v>
       </c>
@@ -6399,14 +6799,15 @@
       <c r="F153" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G153" s="48"/>
+      <c r="G153" s="44"/>
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
       <c r="J153" s="18"/>
-      <c r="K153" s="30"/>
+      <c r="K153" s="17"/>
       <c r="L153" s="30"/>
-    </row>
-    <row r="154" spans="2:12" ht="18">
+      <c r="M153" s="30"/>
+    </row>
+    <row r="154" spans="2:13" ht="18">
       <c r="B154" s="15">
         <v>15221</v>
       </c>
@@ -6422,14 +6823,15 @@
       <c r="F154" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G154" s="48"/>
+      <c r="G154" s="44"/>
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
       <c r="J154" s="18"/>
-      <c r="K154" s="30"/>
+      <c r="K154" s="17"/>
       <c r="L154" s="30"/>
-    </row>
-    <row r="155" spans="2:12" ht="18">
+      <c r="M154" s="30"/>
+    </row>
+    <row r="155" spans="2:13" ht="18">
       <c r="B155" s="15">
         <v>15222</v>
       </c>
@@ -6445,14 +6847,15 @@
       <c r="F155" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G155" s="48"/>
+      <c r="G155" s="44"/>
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
       <c r="J155" s="18"/>
-      <c r="K155" s="30"/>
+      <c r="K155" s="17"/>
       <c r="L155" s="30"/>
-    </row>
-    <row r="156" spans="2:12" ht="18">
+      <c r="M155" s="30"/>
+    </row>
+    <row r="156" spans="2:13" ht="18">
       <c r="B156" s="15">
         <v>15223</v>
       </c>
@@ -6468,14 +6871,15 @@
       <c r="F156" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G156" s="48"/>
+      <c r="G156" s="44"/>
       <c r="H156" s="38"/>
       <c r="I156" s="38"/>
       <c r="J156" s="18"/>
-      <c r="K156" s="30"/>
+      <c r="K156" s="17"/>
       <c r="L156" s="30"/>
-    </row>
-    <row r="157" spans="2:12" ht="18">
+      <c r="M156" s="30"/>
+    </row>
+    <row r="157" spans="2:13" ht="18">
       <c r="B157" s="15">
         <v>15224</v>
       </c>
@@ -6491,14 +6895,15 @@
       <c r="F157" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G157" s="48"/>
+      <c r="G157" s="44"/>
       <c r="H157" s="38"/>
       <c r="I157" s="38"/>
       <c r="J157" s="18"/>
-      <c r="K157" s="30"/>
+      <c r="K157" s="17"/>
       <c r="L157" s="30"/>
-    </row>
-    <row r="158" spans="2:12" ht="18">
+      <c r="M157" s="30"/>
+    </row>
+    <row r="158" spans="2:13" ht="18">
       <c r="B158" s="15">
         <v>15225</v>
       </c>
@@ -6514,14 +6919,15 @@
       <c r="F158" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G158" s="48"/>
+      <c r="G158" s="44"/>
       <c r="H158" s="38"/>
       <c r="I158" s="38"/>
       <c r="J158" s="18"/>
-      <c r="K158" s="30"/>
+      <c r="K158" s="17"/>
       <c r="L158" s="30"/>
-    </row>
-    <row r="159" spans="2:12" ht="18">
+      <c r="M158" s="30"/>
+    </row>
+    <row r="159" spans="2:13" ht="18">
       <c r="B159" s="15">
         <v>15226</v>
       </c>
@@ -6537,14 +6943,15 @@
       <c r="F159" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G159" s="48"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="38"/>
       <c r="I159" s="38"/>
       <c r="J159" s="18"/>
-      <c r="K159" s="30"/>
+      <c r="K159" s="17"/>
       <c r="L159" s="30"/>
-    </row>
-    <row r="160" spans="2:12" ht="18">
+      <c r="M159" s="30"/>
+    </row>
+    <row r="160" spans="2:13" ht="18">
       <c r="B160" s="15">
         <v>15227</v>
       </c>
@@ -6560,14 +6967,15 @@
       <c r="F160" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G160" s="48"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="38"/>
       <c r="I160" s="38"/>
       <c r="J160" s="18"/>
-      <c r="K160" s="30"/>
+      <c r="K160" s="17"/>
       <c r="L160" s="30"/>
-    </row>
-    <row r="161" spans="2:12" ht="18">
+      <c r="M160" s="30"/>
+    </row>
+    <row r="161" spans="2:13" ht="18">
       <c r="B161" s="15">
         <v>15228</v>
       </c>
@@ -6583,14 +6991,15 @@
       <c r="F161" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G161" s="48"/>
+      <c r="G161" s="44"/>
       <c r="H161" s="38"/>
       <c r="I161" s="38"/>
       <c r="J161" s="18"/>
-      <c r="K161" s="30"/>
+      <c r="K161" s="17"/>
       <c r="L161" s="30"/>
-    </row>
-    <row r="162" spans="2:12" ht="18">
+      <c r="M161" s="30"/>
+    </row>
+    <row r="162" spans="2:13" ht="18">
       <c r="B162" s="15">
         <v>15235</v>
       </c>
@@ -6606,14 +7015,15 @@
       <c r="F162" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G162" s="48"/>
+      <c r="G162" s="44"/>
       <c r="H162" s="38"/>
       <c r="I162" s="38"/>
       <c r="J162" s="18"/>
-      <c r="K162" s="30"/>
+      <c r="K162" s="17"/>
       <c r="L162" s="30"/>
-    </row>
-    <row r="163" spans="2:12">
+      <c r="M162" s="30"/>
+    </row>
+    <row r="163" spans="2:13">
       <c r="B163" s="15">
         <v>15238</v>
       </c>
@@ -6629,14 +7039,15 @@
       <c r="F163" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G163" s="48"/>
+      <c r="G163" s="44"/>
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
       <c r="J163" s="18"/>
-      <c r="K163" s="30"/>
+      <c r="K163" s="17"/>
       <c r="L163" s="30"/>
-    </row>
-    <row r="164" spans="2:12" ht="18">
+      <c r="M163" s="30"/>
+    </row>
+    <row r="164" spans="2:13" ht="18">
       <c r="B164" s="15">
         <v>15239</v>
       </c>
@@ -6652,14 +7063,15 @@
       <c r="F164" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G164" s="48"/>
+      <c r="G164" s="44"/>
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
       <c r="J164" s="18"/>
-      <c r="K164" s="30"/>
+      <c r="K164" s="17"/>
       <c r="L164" s="30"/>
-    </row>
-    <row r="165" spans="2:12" ht="18">
+      <c r="M164" s="30"/>
+    </row>
+    <row r="165" spans="2:13" ht="18">
       <c r="B165" s="15">
         <v>15240</v>
       </c>
@@ -6675,14 +7087,15 @@
       <c r="F165" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G165" s="48"/>
+      <c r="G165" s="44"/>
       <c r="H165" s="38"/>
       <c r="I165" s="38"/>
       <c r="J165" s="18"/>
-      <c r="K165" s="30"/>
+      <c r="K165" s="17"/>
       <c r="L165" s="30"/>
-    </row>
-    <row r="166" spans="2:12" ht="18">
+      <c r="M165" s="30"/>
+    </row>
+    <row r="166" spans="2:13" ht="18">
       <c r="B166" s="15">
         <v>15242</v>
       </c>
@@ -6698,14 +7111,15 @@
       <c r="F166" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G166" s="48"/>
+      <c r="G166" s="44"/>
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
       <c r="J166" s="18"/>
-      <c r="K166" s="30"/>
+      <c r="K166" s="17"/>
       <c r="L166" s="30"/>
-    </row>
-    <row r="167" spans="2:12">
+      <c r="M166" s="30"/>
+    </row>
+    <row r="167" spans="2:13">
       <c r="B167" s="15">
         <v>16202</v>
       </c>
@@ -6721,14 +7135,15 @@
       <c r="F167" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G167" s="48"/>
+      <c r="G167" s="44"/>
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
       <c r="J167" s="18"/>
-      <c r="K167" s="30"/>
+      <c r="K167" s="17"/>
       <c r="L167" s="30"/>
-    </row>
-    <row r="168" spans="2:12">
+      <c r="M167" s="30"/>
+    </row>
+    <row r="168" spans="2:13">
       <c r="B168" s="15">
         <v>16203</v>
       </c>
@@ -6744,14 +7159,15 @@
       <c r="F168" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G168" s="48"/>
+      <c r="G168" s="44"/>
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
       <c r="J168" s="18"/>
-      <c r="K168" s="30"/>
+      <c r="K168" s="17"/>
       <c r="L168" s="30"/>
-    </row>
-    <row r="169" spans="2:12">
+      <c r="M168" s="30"/>
+    </row>
+    <row r="169" spans="2:13">
       <c r="B169" s="15">
         <v>16204</v>
       </c>
@@ -6767,16 +7183,19 @@
       <c r="F169" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G169" s="48"/>
+      <c r="G169" s="44"/>
       <c r="H169" s="38" t="s">
         <v>222</v>
       </c>
       <c r="I169" s="38"/>
       <c r="J169" s="18"/>
-      <c r="K169" s="30"/>
+      <c r="K169" s="17" t="s">
+        <v>247</v>
+      </c>
       <c r="L169" s="30"/>
-    </row>
-    <row r="170" spans="2:12">
+      <c r="M169" s="30"/>
+    </row>
+    <row r="170" spans="2:13">
       <c r="B170" s="15">
         <v>16222</v>
       </c>
@@ -6792,15 +7211,18 @@
       <c r="F170" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G170" s="48" t="s">
+      <c r="G170" s="44" t="s">
         <v>222</v>
       </c>
       <c r="H170" s="38"/>
       <c r="I170" s="38"/>
       <c r="J170" s="18"/>
-      <c r="L170" s="30"/>
-    </row>
-    <row r="171" spans="2:12" ht="18">
+      <c r="K170" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="M170" s="30"/>
+    </row>
+    <row r="171" spans="2:13" ht="18">
       <c r="B171" s="32">
         <v>16224</v>
       </c>
@@ -6816,29 +7238,30 @@
       <c r="F171" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="G171" s="50"/>
-      <c r="H171" s="51"/>
-      <c r="I171" s="51"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="47"/>
+      <c r="I171" s="47"/>
       <c r="J171" s="35"/>
-      <c r="L171" s="30"/>
-    </row>
-    <row r="172" spans="2:12">
+      <c r="K171" s="34"/>
+      <c r="M171" s="30"/>
+    </row>
+    <row r="172" spans="2:13">
       <c r="B172" s="36"/>
     </row>
-    <row r="174" spans="2:12">
+    <row r="174" spans="2:13">
       <c r="B174" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C2:J2"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
